--- a/app/resource/xlsx/major_proposal_template_4_case3.xlsx
+++ b/app/resource/xlsx/major_proposal_template_4_case3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD61F74-38FC-42F5-B155-31E1E8F26918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855AF42-1877-4959-8DA1-EBD3525FE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -1302,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1828,37 +1828,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1867,7 +1836,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2164,13 +2133,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2178,6 +2143,78 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2190,119 +2227,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2313,9 +2269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2421,39 +2374,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2469,85 +2458,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2571,29 +2518,47 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3624,9 +3589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3664,7 +3629,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3770,7 +3735,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3912,7 +3877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3923,8 +3888,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y455"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129:I129"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A352" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D370" sqref="D370:G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,67 +3906,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="139" t="s">
+      <c r="F37" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="138" t="s">
+      <c r="F38" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="138" t="s">
+      <c r="F39" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="138" t="s">
+      <c r="F40" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4009,10 +3974,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
@@ -4021,16 +3986,16 @@
       <c r="A45" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131" t="e">
+      <c r="B45" s="123"/>
+      <c r="C45" s="123" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4038,10 +4003,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="131"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4104,15 +4069,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4137,26 +4102,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4164,93 +4129,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="146"/>
-      <c r="R54" s="146"/>
-      <c r="S54" s="146"/>
-      <c r="T54" s="146"/>
-      <c r="U54" s="146"/>
-      <c r="V54" s="146"/>
-      <c r="W54" s="146"/>
-      <c r="X54" s="146"/>
+      <c r="Q54" s="137"/>
+      <c r="R54" s="137"/>
+      <c r="S54" s="137"/>
+      <c r="T54" s="137"/>
+      <c r="U54" s="137"/>
+      <c r="V54" s="137"/>
+      <c r="W54" s="137"/>
+      <c r="X54" s="137"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="135" t="s">
+      <c r="A56" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="M56" s="144"/>
-      <c r="N56" s="144"/>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="144"/>
-      <c r="R56" s="144"/>
-      <c r="S56" s="144"/>
-      <c r="T56" s="144"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="144"/>
-      <c r="S57" s="144"/>
-      <c r="T57" s="144"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="M58" s="144"/>
-      <c r="N58" s="144"/>
-      <c r="O58" s="144"/>
-      <c r="P58" s="144"/>
-      <c r="Q58" s="144"/>
-      <c r="R58" s="144"/>
-      <c r="S58" s="144"/>
-      <c r="T58" s="144"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="M59" s="144"/>
-      <c r="N59" s="144"/>
-      <c r="O59" s="144"/>
-      <c r="P59" s="144"/>
-      <c r="Q59" s="144"/>
-      <c r="R59" s="144"/>
-      <c r="S59" s="144"/>
-      <c r="T59" s="144"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="135"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4268,30 +4233,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="135" t="s">
+      <c r="A61" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4303,16 +4268,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="135" t="s">
+      <c r="B63" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4322,32 +4287,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4356,16 +4321,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="124" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="135"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4386,29 +4351,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="135" t="s">
+      <c r="A68" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="135"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4557,24 +4522,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,16 +4588,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="124" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="135"/>
-      <c r="D91" s="135"/>
-      <c r="E91" s="135"/>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135"/>
-      <c r="H91" s="135"/>
-      <c r="I91" s="135"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="124"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4641,25 +4606,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="135"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
+      <c r="B92" s="124"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="135"/>
-      <c r="C93" s="135"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="135"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="124"/>
+      <c r="F93" s="124"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="124"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4881,10 +4846,10 @@
       <c r="P110" s="42"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="122">
+      <c r="A111" s="120">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B111" s="123" t="s">
+      <c r="B111" s="121" t="s">
         <v>288</v>
       </c>
       <c r="C111" s="108"/>
@@ -4918,218 +4883,218 @@
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="109"/>
-      <c r="B114" s="161" t="s">
+      <c r="B114" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C114" s="162"/>
-      <c r="D114" s="162" t="s">
+      <c r="C114" s="130"/>
+      <c r="D114" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="E114" s="162"/>
-      <c r="F114" s="162"/>
-      <c r="G114" s="162"/>
-      <c r="H114" s="162"/>
-      <c r="I114" s="165"/>
+      <c r="E114" s="130"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="133"/>
       <c r="M114" s="85"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="109"/>
-      <c r="B115" s="163"/>
-      <c r="C115" s="148"/>
-      <c r="D115" s="148" t="s">
+      <c r="B115" s="131"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="E115" s="148"/>
-      <c r="F115" s="148"/>
-      <c r="G115" s="148"/>
-      <c r="H115" s="148"/>
-      <c r="I115" s="149"/>
+      <c r="E115" s="132"/>
+      <c r="F115" s="132"/>
+      <c r="G115" s="132"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="134"/>
       <c r="M115" s="85"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="109"/>
-      <c r="B116" s="164"/>
-      <c r="C116" s="150"/>
-      <c r="D116" s="150" t="s">
+      <c r="B116" s="131"/>
+      <c r="C116" s="247"/>
+      <c r="D116" s="247" t="s">
         <v>257</v>
       </c>
-      <c r="E116" s="150"/>
-      <c r="F116" s="150"/>
-      <c r="G116" s="150"/>
-      <c r="H116" s="150"/>
-      <c r="I116" s="151"/>
+      <c r="E116" s="247"/>
+      <c r="F116" s="247"/>
+      <c r="G116" s="247"/>
+      <c r="H116" s="247"/>
+      <c r="I116" s="134"/>
       <c r="M116" s="85"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="109"/>
-      <c r="B117" s="161"/>
-      <c r="C117" s="162"/>
-      <c r="D117" s="162"/>
-      <c r="E117" s="162"/>
-      <c r="F117" s="162"/>
-      <c r="G117" s="162"/>
-      <c r="H117" s="162"/>
-      <c r="I117" s="165"/>
+      <c r="B117" s="130"/>
+      <c r="C117" s="130"/>
+      <c r="D117" s="130"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="130"/>
+      <c r="G117" s="130"/>
+      <c r="H117" s="130"/>
+      <c r="I117" s="130"/>
       <c r="M117" s="85"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="109"/>
-      <c r="B118" s="163"/>
-      <c r="C118" s="148"/>
-      <c r="D118" s="148"/>
-      <c r="E118" s="148"/>
-      <c r="F118" s="148"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
-      <c r="I118" s="149"/>
+      <c r="B118" s="247"/>
+      <c r="C118" s="247"/>
+      <c r="D118" s="247"/>
+      <c r="E118" s="247"/>
+      <c r="F118" s="247"/>
+      <c r="G118" s="247"/>
+      <c r="H118" s="247"/>
+      <c r="I118" s="247"/>
       <c r="M118" s="85"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="109"/>
-      <c r="B119" s="164"/>
-      <c r="C119" s="150"/>
-      <c r="D119" s="150"/>
-      <c r="E119" s="150"/>
-      <c r="F119" s="150"/>
-      <c r="G119" s="150"/>
-      <c r="H119" s="150"/>
-      <c r="I119" s="151"/>
+      <c r="B119" s="247"/>
+      <c r="C119" s="247"/>
+      <c r="D119" s="247"/>
+      <c r="E119" s="247"/>
+      <c r="F119" s="247"/>
+      <c r="G119" s="247"/>
+      <c r="H119" s="247"/>
+      <c r="I119" s="247"/>
       <c r="M119" s="85"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="109"/>
-      <c r="B120" s="161"/>
-      <c r="C120" s="162"/>
-      <c r="D120" s="162"/>
-      <c r="E120" s="162"/>
-      <c r="F120" s="162"/>
-      <c r="G120" s="162"/>
-      <c r="H120" s="162"/>
-      <c r="I120" s="165"/>
+      <c r="B120" s="247"/>
+      <c r="C120" s="247"/>
+      <c r="D120" s="247"/>
+      <c r="E120" s="247"/>
+      <c r="F120" s="247"/>
+      <c r="G120" s="247"/>
+      <c r="H120" s="247"/>
+      <c r="I120" s="247"/>
       <c r="M120" s="85"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="109"/>
-      <c r="B121" s="163"/>
-      <c r="C121" s="148"/>
-      <c r="D121" s="148"/>
-      <c r="E121" s="148"/>
-      <c r="F121" s="148"/>
-      <c r="G121" s="148"/>
-      <c r="H121" s="148"/>
-      <c r="I121" s="149"/>
+      <c r="B121" s="247"/>
+      <c r="C121" s="247"/>
+      <c r="D121" s="247"/>
+      <c r="E121" s="247"/>
+      <c r="F121" s="247"/>
+      <c r="G121" s="247"/>
+      <c r="H121" s="247"/>
+      <c r="I121" s="247"/>
       <c r="M121" s="85"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="109"/>
-      <c r="B122" s="163"/>
-      <c r="C122" s="148"/>
-      <c r="D122" s="148"/>
-      <c r="E122" s="148"/>
-      <c r="F122" s="148"/>
-      <c r="G122" s="148"/>
-      <c r="H122" s="148"/>
-      <c r="I122" s="149"/>
+      <c r="B122" s="247"/>
+      <c r="C122" s="247"/>
+      <c r="D122" s="247"/>
+      <c r="E122" s="247"/>
+      <c r="F122" s="247"/>
+      <c r="G122" s="247"/>
+      <c r="H122" s="247"/>
+      <c r="I122" s="247"/>
       <c r="M122" s="85"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="109"/>
-      <c r="B123" s="163"/>
-      <c r="C123" s="148"/>
-      <c r="D123" s="148"/>
-      <c r="E123" s="148"/>
-      <c r="F123" s="148"/>
-      <c r="G123" s="148"/>
-      <c r="H123" s="148"/>
-      <c r="I123" s="149"/>
+      <c r="B123" s="247"/>
+      <c r="C123" s="247"/>
+      <c r="D123" s="247"/>
+      <c r="E123" s="247"/>
+      <c r="F123" s="247"/>
+      <c r="G123" s="247"/>
+      <c r="H123" s="247"/>
+      <c r="I123" s="247"/>
       <c r="M123" s="85"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="109"/>
-      <c r="B124" s="164"/>
-      <c r="C124" s="150"/>
-      <c r="D124" s="150"/>
-      <c r="E124" s="150"/>
-      <c r="F124" s="150"/>
-      <c r="G124" s="150"/>
-      <c r="H124" s="150"/>
-      <c r="I124" s="151"/>
+      <c r="B124" s="247"/>
+      <c r="C124" s="247"/>
+      <c r="D124" s="247"/>
+      <c r="E124" s="247"/>
+      <c r="F124" s="247"/>
+      <c r="G124" s="247"/>
+      <c r="H124" s="247"/>
+      <c r="I124" s="247"/>
       <c r="M124" s="85"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="109"/>
-      <c r="B125" s="152"/>
-      <c r="C125" s="153"/>
-      <c r="D125" s="153"/>
-      <c r="E125" s="153"/>
-      <c r="F125" s="153"/>
-      <c r="G125" s="153"/>
-      <c r="H125" s="153"/>
-      <c r="I125" s="157"/>
+      <c r="B125" s="248"/>
+      <c r="C125" s="248"/>
+      <c r="D125" s="248"/>
+      <c r="E125" s="248"/>
+      <c r="F125" s="248"/>
+      <c r="G125" s="248"/>
+      <c r="H125" s="248"/>
+      <c r="I125" s="248"/>
       <c r="M125" s="85"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="109"/>
-      <c r="B126" s="154"/>
-      <c r="C126" s="155"/>
-      <c r="D126" s="155"/>
-      <c r="E126" s="155"/>
-      <c r="F126" s="155"/>
-      <c r="G126" s="155"/>
-      <c r="H126" s="155"/>
-      <c r="I126" s="158"/>
+      <c r="B126" s="248"/>
+      <c r="C126" s="248"/>
+      <c r="D126" s="248"/>
+      <c r="E126" s="248"/>
+      <c r="F126" s="248"/>
+      <c r="G126" s="248"/>
+      <c r="H126" s="248"/>
+      <c r="I126" s="248"/>
       <c r="M126" s="85"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="108"/>
-      <c r="B127" s="154"/>
-      <c r="C127" s="155"/>
-      <c r="D127" s="155"/>
-      <c r="E127" s="155"/>
-      <c r="F127" s="155"/>
-      <c r="G127" s="155"/>
-      <c r="H127" s="155"/>
-      <c r="I127" s="158"/>
+      <c r="B127" s="248"/>
+      <c r="C127" s="248"/>
+      <c r="D127" s="248"/>
+      <c r="E127" s="248"/>
+      <c r="F127" s="248"/>
+      <c r="G127" s="248"/>
+      <c r="H127" s="248"/>
+      <c r="I127" s="248"/>
       <c r="M127" s="85"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="108"/>
-      <c r="B128" s="154"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="155"/>
-      <c r="E128" s="155"/>
-      <c r="F128" s="155"/>
-      <c r="G128" s="155"/>
-      <c r="H128" s="155"/>
-      <c r="I128" s="158"/>
+      <c r="B128" s="248"/>
+      <c r="C128" s="248"/>
+      <c r="D128" s="248"/>
+      <c r="E128" s="248"/>
+      <c r="F128" s="248"/>
+      <c r="G128" s="248"/>
+      <c r="H128" s="248"/>
+      <c r="I128" s="248"/>
       <c r="M128" s="85"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="108"/>
-      <c r="B129" s="156"/>
-      <c r="C129" s="140"/>
-      <c r="D129" s="140"/>
-      <c r="E129" s="140"/>
-      <c r="F129" s="140"/>
-      <c r="G129" s="140"/>
-      <c r="H129" s="140"/>
-      <c r="I129" s="141"/>
+      <c r="B129" s="248"/>
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="248"/>
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="248"/>
+      <c r="I129" s="248"/>
       <c r="M129" s="85"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
@@ -6296,16 +6261,16 @@
         <f t="shared" ref="L226:L283" si="2">IF(M226&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M226" s="133" t="s">
+      <c r="M226" s="125" t="s">
         <v>250</v>
       </c>
-      <c r="N226" s="133"/>
-      <c r="O226" s="133"/>
-      <c r="P226" s="133"/>
-      <c r="Q226" s="133"/>
-      <c r="R226" s="133"/>
-      <c r="S226" s="133"/>
-      <c r="T226" s="133"/>
+      <c r="N226" s="125"/>
+      <c r="O226" s="125"/>
+      <c r="P226" s="125"/>
+      <c r="Q226" s="125"/>
+      <c r="R226" s="125"/>
+      <c r="S226" s="125"/>
+      <c r="T226" s="125"/>
     </row>
     <row r="227" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="31"/>
@@ -6865,16 +6830,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M273" s="133" t="s">
+      <c r="M273" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="N273" s="133"/>
-      <c r="O273" s="133"/>
-      <c r="P273" s="133"/>
-      <c r="Q273" s="133"/>
-      <c r="R273" s="133"/>
-      <c r="S273" s="133"/>
-      <c r="T273" s="133"/>
+      <c r="N273" s="125"/>
+      <c r="O273" s="125"/>
+      <c r="P273" s="125"/>
+      <c r="Q273" s="125"/>
+      <c r="R273" s="125"/>
+      <c r="S273" s="125"/>
+      <c r="T273" s="125"/>
     </row>
     <row r="274" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="31" t="str">
@@ -6931,16 +6896,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M277" s="135" t="s">
+      <c r="M277" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="N277" s="135"/>
-      <c r="O277" s="135"/>
-      <c r="P277" s="135"/>
-      <c r="Q277" s="135"/>
-      <c r="R277" s="135"/>
-      <c r="S277" s="135"/>
-      <c r="T277" s="135"/>
+      <c r="N277" s="124"/>
+      <c r="O277" s="124"/>
+      <c r="P277" s="124"/>
+      <c r="Q277" s="124"/>
+      <c r="R277" s="124"/>
+      <c r="S277" s="124"/>
+      <c r="T277" s="124"/>
     </row>
     <row r="278" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="31"/>
@@ -6987,16 +6952,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M281" s="133" t="s">
+      <c r="M281" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="N281" s="133"/>
-      <c r="O281" s="133"/>
-      <c r="P281" s="133"/>
-      <c r="Q281" s="133"/>
-      <c r="R281" s="133"/>
-      <c r="S281" s="133"/>
-      <c r="T281" s="133"/>
+      <c r="N281" s="125"/>
+      <c r="O281" s="125"/>
+      <c r="P281" s="125"/>
+      <c r="Q281" s="125"/>
+      <c r="R281" s="125"/>
+      <c r="S281" s="125"/>
+      <c r="T281" s="125"/>
     </row>
     <row r="282" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="31"/>
@@ -7016,28 +6981,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M283" s="133" t="s">
+      <c r="M283" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="N283" s="133"/>
-      <c r="O283" s="133"/>
-      <c r="P283" s="133"/>
-      <c r="Q283" s="133"/>
-      <c r="R283" s="133"/>
-      <c r="S283" s="133"/>
-      <c r="T283" s="133"/>
+      <c r="N283" s="125"/>
+      <c r="O283" s="125"/>
+      <c r="P283" s="125"/>
+      <c r="Q283" s="125"/>
+      <c r="R283" s="125"/>
+      <c r="S283" s="125"/>
+      <c r="T283" s="125"/>
     </row>
     <row r="284" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="31"/>
       <c r="L284" s="31"/>
-      <c r="M284" s="133"/>
-      <c r="N284" s="133"/>
-      <c r="O284" s="133"/>
-      <c r="P284" s="133"/>
-      <c r="Q284" s="133"/>
-      <c r="R284" s="133"/>
-      <c r="S284" s="133"/>
-      <c r="T284" s="133"/>
+      <c r="M284" s="125"/>
+      <c r="N284" s="125"/>
+      <c r="O284" s="125"/>
+      <c r="P284" s="125"/>
+      <c r="Q284" s="125"/>
+      <c r="R284" s="125"/>
+      <c r="S284" s="125"/>
+      <c r="T284" s="125"/>
     </row>
     <row r="285" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="31"/>
@@ -7569,16 +7534,16 @@
     </row>
     <row r="317" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="60"/>
-      <c r="B317" s="135" t="s">
+      <c r="B317" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="C317" s="135"/>
-      <c r="D317" s="135"/>
-      <c r="E317" s="135"/>
-      <c r="F317" s="135"/>
-      <c r="G317" s="135"/>
-      <c r="H317" s="135"/>
-      <c r="I317" s="135"/>
+      <c r="C317" s="124"/>
+      <c r="D317" s="124"/>
+      <c r="E317" s="124"/>
+      <c r="F317" s="124"/>
+      <c r="G317" s="124"/>
+      <c r="H317" s="124"/>
+      <c r="I317" s="124"/>
       <c r="K317" s="59"/>
       <c r="N317" s="42"/>
       <c r="O317" s="42"/>
@@ -7586,14 +7551,14 @@
     </row>
     <row r="318" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="60"/>
-      <c r="B318" s="135"/>
-      <c r="C318" s="135"/>
-      <c r="D318" s="135"/>
-      <c r="E318" s="135"/>
-      <c r="F318" s="135"/>
-      <c r="G318" s="135"/>
-      <c r="H318" s="135"/>
-      <c r="I318" s="135"/>
+      <c r="B318" s="124"/>
+      <c r="C318" s="124"/>
+      <c r="D318" s="124"/>
+      <c r="E318" s="124"/>
+      <c r="F318" s="124"/>
+      <c r="G318" s="124"/>
+      <c r="H318" s="124"/>
+      <c r="I318" s="124"/>
       <c r="K318" s="59"/>
       <c r="M318" s="42"/>
       <c r="N318" s="42"/>
@@ -7602,14 +7567,14 @@
     </row>
     <row r="319" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="60"/>
-      <c r="B319" s="135"/>
-      <c r="C319" s="135"/>
-      <c r="D319" s="135"/>
-      <c r="E319" s="135"/>
-      <c r="F319" s="135"/>
-      <c r="G319" s="135"/>
-      <c r="H319" s="135"/>
-      <c r="I319" s="135"/>
+      <c r="B319" s="124"/>
+      <c r="C319" s="124"/>
+      <c r="D319" s="124"/>
+      <c r="E319" s="124"/>
+      <c r="F319" s="124"/>
+      <c r="G319" s="124"/>
+      <c r="H319" s="124"/>
+      <c r="I319" s="124"/>
       <c r="K319" s="59"/>
       <c r="M319" s="42"/>
       <c r="N319" s="42"/>
@@ -7618,14 +7583,14 @@
     </row>
     <row r="320" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="60"/>
-      <c r="B320" s="135"/>
-      <c r="C320" s="135"/>
-      <c r="D320" s="135"/>
-      <c r="E320" s="135"/>
-      <c r="F320" s="135"/>
-      <c r="G320" s="135"/>
-      <c r="H320" s="135"/>
-      <c r="I320" s="135"/>
+      <c r="B320" s="124"/>
+      <c r="C320" s="124"/>
+      <c r="D320" s="124"/>
+      <c r="E320" s="124"/>
+      <c r="F320" s="124"/>
+      <c r="G320" s="124"/>
+      <c r="H320" s="124"/>
+      <c r="I320" s="124"/>
       <c r="K320" s="59"/>
       <c r="M320" s="42"/>
       <c r="N320" s="42"/>
@@ -7668,16 +7633,16 @@
     </row>
     <row r="323" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="60"/>
-      <c r="B323" s="135" t="s">
+      <c r="B323" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="C323" s="135"/>
-      <c r="D323" s="135"/>
-      <c r="E323" s="135"/>
-      <c r="F323" s="135"/>
-      <c r="G323" s="135"/>
-      <c r="H323" s="135"/>
-      <c r="I323" s="135"/>
+      <c r="C323" s="124"/>
+      <c r="D323" s="124"/>
+      <c r="E323" s="124"/>
+      <c r="F323" s="124"/>
+      <c r="G323" s="124"/>
+      <c r="H323" s="124"/>
+      <c r="I323" s="124"/>
       <c r="K323" s="59"/>
       <c r="M323" s="42"/>
       <c r="N323" s="42"/>
@@ -7686,14 +7651,14 @@
     </row>
     <row r="324" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="60"/>
-      <c r="B324" s="135"/>
-      <c r="C324" s="135"/>
-      <c r="D324" s="135"/>
-      <c r="E324" s="135"/>
-      <c r="F324" s="135"/>
-      <c r="G324" s="135"/>
-      <c r="H324" s="135"/>
-      <c r="I324" s="135"/>
+      <c r="B324" s="124"/>
+      <c r="C324" s="124"/>
+      <c r="D324" s="124"/>
+      <c r="E324" s="124"/>
+      <c r="F324" s="124"/>
+      <c r="G324" s="124"/>
+      <c r="H324" s="124"/>
+      <c r="I324" s="124"/>
       <c r="K324" s="59" t="s">
         <v>217</v>
       </c>
@@ -7816,16 +7781,16 @@
     </row>
     <row r="331" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="59"/>
-      <c r="B331" s="133" t="s">
+      <c r="B331" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="C331" s="133"/>
-      <c r="D331" s="133"/>
-      <c r="E331" s="133"/>
-      <c r="F331" s="133"/>
-      <c r="G331" s="133"/>
-      <c r="H331" s="133"/>
-      <c r="I331" s="133"/>
+      <c r="C331" s="125"/>
+      <c r="D331" s="125"/>
+      <c r="E331" s="125"/>
+      <c r="F331" s="125"/>
+      <c r="G331" s="125"/>
+      <c r="H331" s="125"/>
+      <c r="I331" s="125"/>
       <c r="K331" s="59" t="s">
         <v>274</v>
       </c>
@@ -8066,16 +8031,16 @@
     </row>
     <row r="344" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="59"/>
-      <c r="B344" s="131" t="s">
+      <c r="B344" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C344" s="131"/>
-      <c r="D344" s="131"/>
-      <c r="E344" s="131"/>
-      <c r="F344" s="131"/>
-      <c r="G344" s="131"/>
-      <c r="H344" s="131"/>
-      <c r="I344" s="131"/>
+      <c r="C344" s="123"/>
+      <c r="D344" s="123"/>
+      <c r="E344" s="123"/>
+      <c r="F344" s="123"/>
+      <c r="G344" s="123"/>
+      <c r="H344" s="123"/>
+      <c r="I344" s="123"/>
       <c r="K344" t="s">
         <v>65</v>
       </c>
@@ -8134,16 +8099,16 @@
       <c r="P348" s="42"/>
     </row>
     <row r="349" spans="1:25" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="133" t="s">
+      <c r="B349" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="C349" s="133"/>
-      <c r="D349" s="133"/>
-      <c r="E349" s="133"/>
-      <c r="F349" s="133"/>
-      <c r="G349" s="133"/>
-      <c r="H349" s="133"/>
-      <c r="I349" s="133"/>
+      <c r="C349" s="125"/>
+      <c r="D349" s="125"/>
+      <c r="E349" s="125"/>
+      <c r="F349" s="125"/>
+      <c r="G349" s="125"/>
+      <c r="H349" s="125"/>
+      <c r="I349" s="125"/>
       <c r="K349" s="59"/>
       <c r="L349" s="61"/>
     </row>
@@ -8152,14 +8117,14 @@
         <v>142</v>
       </c>
       <c r="C350" s="77"/>
-      <c r="D350" s="159" t="s">
+      <c r="D350" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="E350" s="159"/>
-      <c r="F350" s="159" t="s">
+      <c r="E350" s="126"/>
+      <c r="F350" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="G350" s="159"/>
+      <c r="G350" s="126"/>
       <c r="H350" s="29"/>
       <c r="O350" s="25"/>
       <c r="P350" s="29"/>
@@ -8169,14 +8134,14 @@
         <v>138</v>
       </c>
       <c r="C351" s="54"/>
-      <c r="D351" s="132" t="s">
+      <c r="D351" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="E351" s="132"/>
-      <c r="F351" s="160">
+      <c r="E351" s="128"/>
+      <c r="F351" s="127">
         <v>10000000</v>
       </c>
-      <c r="G351" s="160"/>
+      <c r="G351" s="127"/>
       <c r="H351" s="48"/>
       <c r="I351" s="25"/>
       <c r="O351" s="47"/>
@@ -8187,14 +8152,14 @@
         <v>140</v>
       </c>
       <c r="C352" s="54"/>
-      <c r="D352" s="132" t="s">
+      <c r="D352" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="E352" s="132"/>
-      <c r="F352" s="160">
+      <c r="E352" s="128"/>
+      <c r="F352" s="127">
         <v>20000000</v>
       </c>
-      <c r="G352" s="160"/>
+      <c r="G352" s="127"/>
       <c r="H352" s="48"/>
       <c r="O352" s="47"/>
       <c r="P352" s="66"/>
@@ -8263,16 +8228,16 @@
     </row>
     <row r="356" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
-      <c r="B356" s="135" t="s">
+      <c r="B356" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="C356" s="135"/>
-      <c r="D356" s="135"/>
-      <c r="E356" s="135"/>
-      <c r="F356" s="135"/>
-      <c r="G356" s="135"/>
-      <c r="H356" s="135"/>
-      <c r="I356" s="135"/>
+      <c r="C356" s="124"/>
+      <c r="D356" s="124"/>
+      <c r="E356" s="124"/>
+      <c r="F356" s="124"/>
+      <c r="G356" s="124"/>
+      <c r="H356" s="124"/>
+      <c r="I356" s="124"/>
       <c r="P356" s="66"/>
       <c r="Q356" s="35"/>
       <c r="R356" s="35"/>
@@ -8281,39 +8246,39 @@
     </row>
     <row r="357" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
-      <c r="B357" s="135"/>
-      <c r="C357" s="135"/>
-      <c r="D357" s="135"/>
-      <c r="E357" s="135"/>
-      <c r="F357" s="135"/>
-      <c r="G357" s="135"/>
-      <c r="H357" s="135"/>
-      <c r="I357" s="135"/>
+      <c r="B357" s="124"/>
+      <c r="C357" s="124"/>
+      <c r="D357" s="124"/>
+      <c r="E357" s="124"/>
+      <c r="F357" s="124"/>
+      <c r="G357" s="124"/>
+      <c r="H357" s="124"/>
+      <c r="I357" s="124"/>
       <c r="P357" s="66"/>
     </row>
     <row r="358" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
-      <c r="B358" s="135"/>
-      <c r="C358" s="135"/>
-      <c r="D358" s="135"/>
-      <c r="E358" s="135"/>
-      <c r="F358" s="135"/>
-      <c r="G358" s="135"/>
-      <c r="H358" s="135"/>
-      <c r="I358" s="135"/>
+      <c r="B358" s="124"/>
+      <c r="C358" s="124"/>
+      <c r="D358" s="124"/>
+      <c r="E358" s="124"/>
+      <c r="F358" s="124"/>
+      <c r="G358" s="124"/>
+      <c r="H358" s="124"/>
+      <c r="I358" s="124"/>
       <c r="P358" s="66"/>
       <c r="S358" s="34"/>
     </row>
     <row r="359" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
-      <c r="B359" s="135"/>
-      <c r="C359" s="135"/>
-      <c r="D359" s="135"/>
-      <c r="E359" s="135"/>
-      <c r="F359" s="135"/>
-      <c r="G359" s="135"/>
-      <c r="H359" s="135"/>
-      <c r="I359" s="135"/>
+      <c r="B359" s="124"/>
+      <c r="C359" s="124"/>
+      <c r="D359" s="124"/>
+      <c r="E359" s="124"/>
+      <c r="F359" s="124"/>
+      <c r="G359" s="124"/>
+      <c r="H359" s="124"/>
+      <c r="I359" s="124"/>
       <c r="P359" s="66"/>
       <c r="Q359" s="16"/>
       <c r="R359" s="16"/>
@@ -8359,39 +8324,39 @@
       <c r="P361" s="42"/>
     </row>
     <row r="362" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="135" t="s">
+      <c r="B362" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="C362" s="135"/>
-      <c r="D362" s="135"/>
-      <c r="E362" s="135"/>
-      <c r="F362" s="135"/>
-      <c r="G362" s="135"/>
-      <c r="H362" s="135"/>
-      <c r="I362" s="135"/>
+      <c r="C362" s="124"/>
+      <c r="D362" s="124"/>
+      <c r="E362" s="124"/>
+      <c r="F362" s="124"/>
+      <c r="G362" s="124"/>
+      <c r="H362" s="124"/>
+      <c r="I362" s="124"/>
     </row>
     <row r="363" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="135"/>
-      <c r="C363" s="135"/>
-      <c r="D363" s="135"/>
-      <c r="E363" s="135"/>
-      <c r="F363" s="135"/>
-      <c r="G363" s="135"/>
-      <c r="H363" s="135"/>
-      <c r="I363" s="135"/>
+      <c r="B363" s="124"/>
+      <c r="C363" s="124"/>
+      <c r="D363" s="124"/>
+      <c r="E363" s="124"/>
+      <c r="F363" s="124"/>
+      <c r="G363" s="124"/>
+      <c r="H363" s="124"/>
+      <c r="I363" s="124"/>
     </row>
     <row r="364" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="128" t="s">
+      <c r="B364" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="C364" s="128"/>
-      <c r="D364" s="129" t="s">
+      <c r="C364" s="122"/>
+      <c r="D364" s="249" t="s">
         <v>283</v>
       </c>
-      <c r="E364" s="129"/>
-      <c r="F364" s="129"/>
-      <c r="G364" s="129"/>
-      <c r="H364" s="128" t="s">
+      <c r="E364" s="250"/>
+      <c r="F364" s="250"/>
+      <c r="G364" s="251"/>
+      <c r="H364" s="122" t="s">
         <v>284</v>
       </c>
       <c r="I364" s="25"/>
@@ -8402,13 +8367,13 @@
       <c r="P364" s="117"/>
     </row>
     <row r="365" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="128"/>
-      <c r="C365" s="128"/>
-      <c r="D365" s="130"/>
-      <c r="E365" s="130"/>
-      <c r="F365" s="130"/>
-      <c r="G365" s="130"/>
-      <c r="H365" s="128"/>
+      <c r="B365" s="122"/>
+      <c r="C365" s="122"/>
+      <c r="D365" s="252"/>
+      <c r="E365" s="253"/>
+      <c r="F365" s="253"/>
+      <c r="G365" s="254"/>
+      <c r="H365" s="122"/>
       <c r="I365" s="25"/>
       <c r="L365" s="59"/>
       <c r="M365" s="59"/>
@@ -8417,13 +8382,13 @@
       <c r="P365" s="117"/>
     </row>
     <row r="366" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="124"/>
-      <c r="C366" s="124"/>
-      <c r="D366" s="118"/>
-      <c r="E366" s="118"/>
-      <c r="F366" s="118"/>
-      <c r="G366" s="119"/>
-      <c r="H366" s="119"/>
+      <c r="B366" s="146"/>
+      <c r="C366" s="146"/>
+      <c r="D366" s="255"/>
+      <c r="E366" s="256"/>
+      <c r="F366" s="256"/>
+      <c r="G366" s="257"/>
+      <c r="H366" s="118"/>
       <c r="I366" s="25"/>
       <c r="L366" s="59"/>
       <c r="M366" s="59"/>
@@ -8432,13 +8397,13 @@
       <c r="P366" s="117"/>
     </row>
     <row r="367" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="126"/>
-      <c r="C367" s="127"/>
-      <c r="D367" s="118"/>
-      <c r="E367" s="118"/>
-      <c r="F367" s="118"/>
-      <c r="G367" s="119"/>
-      <c r="H367" s="119"/>
+      <c r="B367" s="148"/>
+      <c r="C367" s="149"/>
+      <c r="D367" s="255"/>
+      <c r="E367" s="256"/>
+      <c r="F367" s="256"/>
+      <c r="G367" s="257"/>
+      <c r="H367" s="118"/>
       <c r="I367" s="25"/>
       <c r="L367" s="59"/>
       <c r="M367" s="59"/>
@@ -8447,13 +8412,13 @@
       <c r="P367" s="117"/>
     </row>
     <row r="368" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="126"/>
-      <c r="C368" s="127"/>
-      <c r="D368" s="118"/>
-      <c r="E368" s="118"/>
-      <c r="F368" s="118"/>
-      <c r="G368" s="119"/>
-      <c r="H368" s="119"/>
+      <c r="B368" s="148"/>
+      <c r="C368" s="149"/>
+      <c r="D368" s="255"/>
+      <c r="E368" s="256"/>
+      <c r="F368" s="256"/>
+      <c r="G368" s="257"/>
+      <c r="H368" s="118"/>
       <c r="I368" s="25"/>
       <c r="L368" s="59"/>
       <c r="M368" s="59"/>
@@ -8462,13 +8427,13 @@
       <c r="P368" s="117"/>
     </row>
     <row r="369" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="126"/>
-      <c r="C369" s="127"/>
-      <c r="D369" s="118"/>
-      <c r="E369" s="118"/>
-      <c r="F369" s="118"/>
-      <c r="G369" s="119"/>
-      <c r="H369" s="119"/>
+      <c r="B369" s="148"/>
+      <c r="C369" s="149"/>
+      <c r="D369" s="255"/>
+      <c r="E369" s="256"/>
+      <c r="F369" s="256"/>
+      <c r="G369" s="257"/>
+      <c r="H369" s="118"/>
       <c r="I369" s="25"/>
       <c r="L369" s="59"/>
       <c r="M369" s="59"/>
@@ -8477,15 +8442,15 @@
       <c r="P369" s="117"/>
     </row>
     <row r="370" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="124" t="s">
+      <c r="B370" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="C370" s="124"/>
-      <c r="D370" s="120"/>
-      <c r="E370" s="118"/>
-      <c r="F370" s="118"/>
-      <c r="G370" s="119"/>
-      <c r="H370" s="119"/>
+      <c r="C370" s="146"/>
+      <c r="D370" s="258"/>
+      <c r="E370" s="259"/>
+      <c r="F370" s="259"/>
+      <c r="G370" s="260"/>
+      <c r="H370" s="118"/>
       <c r="I370" s="25"/>
       <c r="L370" s="59"/>
       <c r="M370" s="59"/>
@@ -8494,15 +8459,15 @@
       <c r="P370" s="117"/>
     </row>
     <row r="371" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="125" t="s">
+      <c r="B371" s="147" t="s">
         <v>286</v>
       </c>
-      <c r="C371" s="125"/>
-      <c r="D371" s="125"/>
-      <c r="E371" s="125"/>
-      <c r="F371" s="125"/>
-      <c r="G371" s="125"/>
-      <c r="H371" s="119"/>
+      <c r="C371" s="147"/>
+      <c r="D371" s="147"/>
+      <c r="E371" s="147"/>
+      <c r="F371" s="147"/>
+      <c r="G371" s="147"/>
+      <c r="H371" s="118"/>
       <c r="I371" s="25"/>
       <c r="L371" s="59"/>
       <c r="M371" s="59"/>
@@ -8511,15 +8476,15 @@
       <c r="P371" s="117"/>
     </row>
     <row r="372" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="125" t="s">
+      <c r="B372" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="C372" s="125"/>
-      <c r="D372" s="125"/>
-      <c r="E372" s="125"/>
-      <c r="F372" s="125"/>
-      <c r="G372" s="125"/>
-      <c r="H372" s="119"/>
+      <c r="C372" s="147"/>
+      <c r="D372" s="147"/>
+      <c r="E372" s="147"/>
+      <c r="F372" s="147"/>
+      <c r="G372" s="147"/>
+      <c r="H372" s="118"/>
       <c r="I372" s="25"/>
       <c r="L372" s="59"/>
       <c r="M372" s="59"/>
@@ -8573,28 +8538,28 @@
       <c r="P375" s="66"/>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B376" s="135" t="s">
+      <c r="B376" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="C376" s="135"/>
-      <c r="D376" s="135"/>
-      <c r="E376" s="135"/>
-      <c r="F376" s="135"/>
-      <c r="G376" s="135"/>
-      <c r="H376" s="135"/>
-      <c r="I376" s="135"/>
+      <c r="C376" s="124"/>
+      <c r="D376" s="124"/>
+      <c r="E376" s="124"/>
+      <c r="F376" s="124"/>
+      <c r="G376" s="124"/>
+      <c r="H376" s="124"/>
+      <c r="I376" s="124"/>
       <c r="P376" s="66"/>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="46"/>
-      <c r="B377" s="135"/>
-      <c r="C377" s="135"/>
-      <c r="D377" s="135"/>
-      <c r="E377" s="135"/>
-      <c r="F377" s="135"/>
-      <c r="G377" s="135"/>
-      <c r="H377" s="135"/>
-      <c r="I377" s="135"/>
+      <c r="B377" s="124"/>
+      <c r="C377" s="124"/>
+      <c r="D377" s="124"/>
+      <c r="E377" s="124"/>
+      <c r="F377" s="124"/>
+      <c r="G377" s="124"/>
+      <c r="H377" s="124"/>
+      <c r="I377" s="124"/>
       <c r="P377" s="66"/>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.25">
@@ -8836,11 +8801,11 @@
       <c r="B403" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F403" s="142">
+      <c r="F403" s="140">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="G403" s="142"/>
+        <v>45306</v>
+      </c>
+      <c r="G403" s="140"/>
       <c r="K403" s="45"/>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -8860,374 +8825,374 @@
       <c r="A406" s="28">
         <v>1</v>
       </c>
-      <c r="B406" s="143" t="s">
+      <c r="B406" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="C406" s="143"/>
-      <c r="D406" s="143"/>
-      <c r="E406" s="143"/>
-      <c r="F406" s="143"/>
-      <c r="G406" s="143"/>
-      <c r="H406" s="143"/>
-      <c r="I406" s="143"/>
+      <c r="C406" s="139"/>
+      <c r="D406" s="139"/>
+      <c r="E406" s="139"/>
+      <c r="F406" s="139"/>
+      <c r="G406" s="139"/>
+      <c r="H406" s="139"/>
+      <c r="I406" s="139"/>
     </row>
     <row r="407" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="28">
         <v>2</v>
       </c>
-      <c r="B407" s="143" t="s">
+      <c r="B407" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="C407" s="143"/>
-      <c r="D407" s="143"/>
-      <c r="E407" s="143"/>
-      <c r="F407" s="143"/>
-      <c r="G407" s="143"/>
-      <c r="H407" s="143"/>
-      <c r="I407" s="143"/>
+      <c r="C407" s="139"/>
+      <c r="D407" s="139"/>
+      <c r="E407" s="139"/>
+      <c r="F407" s="139"/>
+      <c r="G407" s="139"/>
+      <c r="H407" s="139"/>
+      <c r="I407" s="139"/>
     </row>
     <row r="408" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="28">
         <v>3</v>
       </c>
-      <c r="B408" s="143" t="s">
+      <c r="B408" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="C408" s="143"/>
-      <c r="D408" s="143"/>
-      <c r="E408" s="143"/>
-      <c r="F408" s="143"/>
-      <c r="G408" s="143"/>
-      <c r="H408" s="143"/>
-      <c r="I408" s="143"/>
+      <c r="C408" s="139"/>
+      <c r="D408" s="139"/>
+      <c r="E408" s="139"/>
+      <c r="F408" s="139"/>
+      <c r="G408" s="139"/>
+      <c r="H408" s="139"/>
+      <c r="I408" s="139"/>
     </row>
     <row r="409" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="28">
         <v>4</v>
       </c>
-      <c r="B409" s="143" t="s">
+      <c r="B409" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="C409" s="143"/>
-      <c r="D409" s="143"/>
-      <c r="E409" s="143"/>
-      <c r="F409" s="143"/>
-      <c r="G409" s="143"/>
-      <c r="H409" s="143"/>
-      <c r="I409" s="143"/>
+      <c r="C409" s="139"/>
+      <c r="D409" s="139"/>
+      <c r="E409" s="139"/>
+      <c r="F409" s="139"/>
+      <c r="G409" s="139"/>
+      <c r="H409" s="139"/>
+      <c r="I409" s="139"/>
     </row>
     <row r="410" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="28">
         <v>5</v>
       </c>
-      <c r="B410" s="143" t="s">
+      <c r="B410" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="C410" s="143"/>
-      <c r="D410" s="143"/>
-      <c r="E410" s="143"/>
-      <c r="F410" s="143"/>
-      <c r="G410" s="143"/>
-      <c r="H410" s="143"/>
-      <c r="I410" s="143"/>
+      <c r="C410" s="139"/>
+      <c r="D410" s="139"/>
+      <c r="E410" s="139"/>
+      <c r="F410" s="139"/>
+      <c r="G410" s="139"/>
+      <c r="H410" s="139"/>
+      <c r="I410" s="139"/>
     </row>
     <row r="411" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
-      <c r="B411" s="143" t="s">
+      <c r="B411" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="C411" s="143"/>
-      <c r="D411" s="143"/>
-      <c r="E411" s="143"/>
-      <c r="F411" s="143"/>
-      <c r="G411" s="143"/>
-      <c r="H411" s="143"/>
-      <c r="I411" s="143"/>
+      <c r="C411" s="139"/>
+      <c r="D411" s="139"/>
+      <c r="E411" s="139"/>
+      <c r="F411" s="139"/>
+      <c r="G411" s="139"/>
+      <c r="H411" s="139"/>
+      <c r="I411" s="139"/>
     </row>
     <row r="412" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
-      <c r="B412" s="143" t="s">
+      <c r="B412" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="C412" s="143"/>
-      <c r="D412" s="143"/>
-      <c r="E412" s="143"/>
-      <c r="F412" s="143"/>
-      <c r="G412" s="143"/>
-      <c r="H412" s="143"/>
-      <c r="I412" s="143"/>
+      <c r="C412" s="139"/>
+      <c r="D412" s="139"/>
+      <c r="E412" s="139"/>
+      <c r="F412" s="139"/>
+      <c r="G412" s="139"/>
+      <c r="H412" s="139"/>
+      <c r="I412" s="139"/>
     </row>
     <row r="413" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
-      <c r="B413" s="143" t="s">
+      <c r="B413" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="C413" s="143"/>
-      <c r="D413" s="143"/>
-      <c r="E413" s="143"/>
-      <c r="F413" s="143"/>
-      <c r="G413" s="143"/>
-      <c r="H413" s="143"/>
-      <c r="I413" s="143"/>
+      <c r="C413" s="139"/>
+      <c r="D413" s="139"/>
+      <c r="E413" s="139"/>
+      <c r="F413" s="139"/>
+      <c r="G413" s="139"/>
+      <c r="H413" s="139"/>
+      <c r="I413" s="139"/>
     </row>
     <row r="414" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="28">
         <v>6</v>
       </c>
-      <c r="B414" s="143" t="s">
+      <c r="B414" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="C414" s="143"/>
-      <c r="D414" s="143"/>
-      <c r="E414" s="143"/>
-      <c r="F414" s="143"/>
-      <c r="G414" s="143"/>
-      <c r="H414" s="143"/>
-      <c r="I414" s="143"/>
+      <c r="C414" s="139"/>
+      <c r="D414" s="139"/>
+      <c r="E414" s="139"/>
+      <c r="F414" s="139"/>
+      <c r="G414" s="139"/>
+      <c r="H414" s="139"/>
+      <c r="I414" s="139"/>
     </row>
     <row r="415" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="28"/>
-      <c r="B415" s="143" t="s">
+      <c r="B415" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="C415" s="143"/>
-      <c r="D415" s="143"/>
-      <c r="E415" s="143"/>
-      <c r="F415" s="143"/>
-      <c r="G415" s="143"/>
-      <c r="H415" s="143"/>
-      <c r="I415" s="143"/>
+      <c r="C415" s="139"/>
+      <c r="D415" s="139"/>
+      <c r="E415" s="139"/>
+      <c r="F415" s="139"/>
+      <c r="G415" s="139"/>
+      <c r="H415" s="139"/>
+      <c r="I415" s="139"/>
     </row>
     <row r="416" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="28"/>
-      <c r="B416" s="143" t="s">
+      <c r="B416" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C416" s="143"/>
-      <c r="D416" s="143"/>
-      <c r="E416" s="143"/>
-      <c r="F416" s="143"/>
-      <c r="G416" s="143"/>
-      <c r="H416" s="143"/>
-      <c r="I416" s="143"/>
+      <c r="C416" s="139"/>
+      <c r="D416" s="139"/>
+      <c r="E416" s="139"/>
+      <c r="F416" s="139"/>
+      <c r="G416" s="139"/>
+      <c r="H416" s="139"/>
+      <c r="I416" s="139"/>
     </row>
     <row r="417" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="28">
         <v>7</v>
       </c>
-      <c r="B417" s="143" t="s">
+      <c r="B417" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C417" s="143"/>
-      <c r="D417" s="143"/>
-      <c r="E417" s="143"/>
-      <c r="F417" s="143"/>
-      <c r="G417" s="143"/>
-      <c r="H417" s="143"/>
-      <c r="I417" s="143"/>
+      <c r="C417" s="139"/>
+      <c r="D417" s="139"/>
+      <c r="E417" s="139"/>
+      <c r="F417" s="139"/>
+      <c r="G417" s="139"/>
+      <c r="H417" s="139"/>
+      <c r="I417" s="139"/>
     </row>
     <row r="418" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="28">
         <v>8</v>
       </c>
-      <c r="B418" s="143" t="s">
+      <c r="B418" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="C418" s="143"/>
-      <c r="D418" s="143"/>
-      <c r="E418" s="143"/>
-      <c r="F418" s="143"/>
-      <c r="G418" s="143"/>
-      <c r="H418" s="143"/>
-      <c r="I418" s="143"/>
+      <c r="C418" s="139"/>
+      <c r="D418" s="139"/>
+      <c r="E418" s="139"/>
+      <c r="F418" s="139"/>
+      <c r="G418" s="139"/>
+      <c r="H418" s="139"/>
+      <c r="I418" s="139"/>
     </row>
     <row r="419" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
-      <c r="B419" s="143" t="s">
+      <c r="B419" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="C419" s="143"/>
-      <c r="D419" s="143"/>
-      <c r="E419" s="143"/>
-      <c r="F419" s="143"/>
-      <c r="G419" s="143"/>
-      <c r="H419" s="143"/>
-      <c r="I419" s="143"/>
+      <c r="C419" s="139"/>
+      <c r="D419" s="139"/>
+      <c r="E419" s="139"/>
+      <c r="F419" s="139"/>
+      <c r="G419" s="139"/>
+      <c r="H419" s="139"/>
+      <c r="I419" s="139"/>
     </row>
     <row r="420" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
-      <c r="B420" s="143" t="s">
+      <c r="B420" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="C420" s="143"/>
-      <c r="D420" s="143"/>
-      <c r="E420" s="143"/>
-      <c r="F420" s="143"/>
-      <c r="G420" s="143"/>
-      <c r="H420" s="143"/>
-      <c r="I420" s="143"/>
+      <c r="C420" s="139"/>
+      <c r="D420" s="139"/>
+      <c r="E420" s="139"/>
+      <c r="F420" s="139"/>
+      <c r="G420" s="139"/>
+      <c r="H420" s="139"/>
+      <c r="I420" s="139"/>
     </row>
     <row r="421" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="28"/>
-      <c r="B421" s="143" t="s">
+      <c r="B421" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C421" s="143"/>
-      <c r="D421" s="143"/>
-      <c r="E421" s="143"/>
-      <c r="F421" s="143"/>
-      <c r="G421" s="143"/>
-      <c r="H421" s="143"/>
-      <c r="I421" s="143"/>
+      <c r="C421" s="139"/>
+      <c r="D421" s="139"/>
+      <c r="E421" s="139"/>
+      <c r="F421" s="139"/>
+      <c r="G421" s="139"/>
+      <c r="H421" s="139"/>
+      <c r="I421" s="139"/>
     </row>
     <row r="422" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="28"/>
-      <c r="B422" s="143" t="s">
+      <c r="B422" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="C422" s="143"/>
-      <c r="D422" s="143"/>
-      <c r="E422" s="143"/>
-      <c r="F422" s="143"/>
-      <c r="G422" s="143"/>
-      <c r="H422" s="143"/>
-      <c r="I422" s="143"/>
+      <c r="C422" s="139"/>
+      <c r="D422" s="139"/>
+      <c r="E422" s="139"/>
+      <c r="F422" s="139"/>
+      <c r="G422" s="139"/>
+      <c r="H422" s="139"/>
+      <c r="I422" s="139"/>
     </row>
     <row r="423" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
-      <c r="B423" s="143" t="s">
+      <c r="B423" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="C423" s="143"/>
-      <c r="D423" s="143"/>
-      <c r="E423" s="143"/>
-      <c r="F423" s="143"/>
-      <c r="G423" s="143"/>
-      <c r="H423" s="143"/>
-      <c r="I423" s="143"/>
+      <c r="C423" s="139"/>
+      <c r="D423" s="139"/>
+      <c r="E423" s="139"/>
+      <c r="F423" s="139"/>
+      <c r="G423" s="139"/>
+      <c r="H423" s="139"/>
+      <c r="I423" s="139"/>
     </row>
     <row r="424" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
-      <c r="B424" s="143" t="s">
+      <c r="B424" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="C424" s="143"/>
-      <c r="D424" s="143"/>
-      <c r="E424" s="143"/>
-      <c r="F424" s="143"/>
-      <c r="G424" s="143"/>
-      <c r="H424" s="143"/>
-      <c r="I424" s="143"/>
+      <c r="C424" s="139"/>
+      <c r="D424" s="139"/>
+      <c r="E424" s="139"/>
+      <c r="F424" s="139"/>
+      <c r="G424" s="139"/>
+      <c r="H424" s="139"/>
+      <c r="I424" s="139"/>
     </row>
     <row r="425" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="28">
         <v>9</v>
       </c>
-      <c r="B425" s="143" t="s">
+      <c r="B425" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C425" s="143"/>
-      <c r="D425" s="143"/>
-      <c r="E425" s="143"/>
-      <c r="F425" s="143"/>
-      <c r="G425" s="143"/>
-      <c r="H425" s="143"/>
-      <c r="I425" s="143"/>
+      <c r="C425" s="139"/>
+      <c r="D425" s="139"/>
+      <c r="E425" s="139"/>
+      <c r="F425" s="139"/>
+      <c r="G425" s="139"/>
+      <c r="H425" s="139"/>
+      <c r="I425" s="139"/>
     </row>
     <row r="426" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="28">
         <v>10</v>
       </c>
-      <c r="B426" s="143" t="s">
+      <c r="B426" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="C426" s="143"/>
-      <c r="D426" s="143"/>
-      <c r="E426" s="143"/>
-      <c r="F426" s="143"/>
-      <c r="G426" s="143"/>
-      <c r="H426" s="143"/>
-      <c r="I426" s="143"/>
+      <c r="C426" s="139"/>
+      <c r="D426" s="139"/>
+      <c r="E426" s="139"/>
+      <c r="F426" s="139"/>
+      <c r="G426" s="139"/>
+      <c r="H426" s="139"/>
+      <c r="I426" s="139"/>
     </row>
     <row r="427" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="28"/>
-      <c r="B427" s="143" t="s">
+      <c r="B427" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="C427" s="143"/>
-      <c r="D427" s="143"/>
-      <c r="E427" s="143"/>
-      <c r="F427" s="143"/>
-      <c r="G427" s="143"/>
-      <c r="H427" s="143"/>
-      <c r="I427" s="143"/>
+      <c r="C427" s="139"/>
+      <c r="D427" s="139"/>
+      <c r="E427" s="139"/>
+      <c r="F427" s="139"/>
+      <c r="G427" s="139"/>
+      <c r="H427" s="139"/>
+      <c r="I427" s="139"/>
     </row>
     <row r="428" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="28"/>
-      <c r="B428" s="143" t="s">
+      <c r="B428" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="C428" s="143"/>
-      <c r="D428" s="143"/>
-      <c r="E428" s="143"/>
-      <c r="F428" s="143"/>
-      <c r="G428" s="143"/>
-      <c r="H428" s="143"/>
-      <c r="I428" s="143"/>
+      <c r="C428" s="139"/>
+      <c r="D428" s="139"/>
+      <c r="E428" s="139"/>
+      <c r="F428" s="139"/>
+      <c r="G428" s="139"/>
+      <c r="H428" s="139"/>
+      <c r="I428" s="139"/>
     </row>
     <row r="429" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
-      <c r="B429" s="143" t="s">
+      <c r="B429" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="C429" s="143"/>
-      <c r="D429" s="143"/>
-      <c r="E429" s="143"/>
-      <c r="F429" s="143"/>
-      <c r="G429" s="143"/>
-      <c r="H429" s="143"/>
-      <c r="I429" s="143"/>
+      <c r="C429" s="139"/>
+      <c r="D429" s="139"/>
+      <c r="E429" s="139"/>
+      <c r="F429" s="139"/>
+      <c r="G429" s="139"/>
+      <c r="H429" s="139"/>
+      <c r="I429" s="139"/>
     </row>
     <row r="430" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
-      <c r="B430" s="143" t="s">
+      <c r="B430" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="C430" s="143"/>
-      <c r="D430" s="143"/>
-      <c r="E430" s="143"/>
-      <c r="F430" s="143"/>
-      <c r="G430" s="143"/>
-      <c r="H430" s="143"/>
-      <c r="I430" s="143"/>
+      <c r="C430" s="139"/>
+      <c r="D430" s="139"/>
+      <c r="E430" s="139"/>
+      <c r="F430" s="139"/>
+      <c r="G430" s="139"/>
+      <c r="H430" s="139"/>
+      <c r="I430" s="139"/>
     </row>
     <row r="431" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="28">
         <v>11</v>
       </c>
-      <c r="B431" s="143" t="s">
+      <c r="B431" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C431" s="143"/>
-      <c r="D431" s="143"/>
-      <c r="E431" s="143"/>
-      <c r="F431" s="143"/>
-      <c r="G431" s="143"/>
-      <c r="H431" s="143"/>
-      <c r="I431" s="143"/>
+      <c r="C431" s="139"/>
+      <c r="D431" s="139"/>
+      <c r="E431" s="139"/>
+      <c r="F431" s="139"/>
+      <c r="G431" s="139"/>
+      <c r="H431" s="139"/>
+      <c r="I431" s="139"/>
     </row>
     <row r="432" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
-      <c r="B432" s="143" t="s">
+      <c r="B432" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="C432" s="143"/>
-      <c r="D432" s="143"/>
-      <c r="E432" s="143"/>
-      <c r="F432" s="143"/>
-      <c r="G432" s="143"/>
-      <c r="H432" s="143"/>
-      <c r="I432" s="143"/>
+      <c r="C432" s="139"/>
+      <c r="D432" s="139"/>
+      <c r="E432" s="139"/>
+      <c r="F432" s="139"/>
+      <c r="G432" s="139"/>
+      <c r="H432" s="139"/>
+      <c r="I432" s="139"/>
     </row>
     <row r="433" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="28"/>
@@ -9248,236 +9213,236 @@
     </row>
     <row r="434" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="28"/>
-      <c r="B434" s="143" t="s">
+      <c r="B434" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="C434" s="143"/>
-      <c r="D434" s="143"/>
-      <c r="E434" s="143"/>
-      <c r="F434" s="143"/>
-      <c r="G434" s="143"/>
-      <c r="H434" s="143"/>
-      <c r="I434" s="143"/>
+      <c r="C434" s="139"/>
+      <c r="D434" s="139"/>
+      <c r="E434" s="139"/>
+      <c r="F434" s="139"/>
+      <c r="G434" s="139"/>
+      <c r="H434" s="139"/>
+      <c r="I434" s="139"/>
     </row>
     <row r="435" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="28">
         <v>12</v>
       </c>
-      <c r="B435" s="143" t="s">
+      <c r="B435" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="C435" s="143"/>
-      <c r="D435" s="143"/>
-      <c r="E435" s="143"/>
-      <c r="F435" s="143"/>
-      <c r="G435" s="143"/>
-      <c r="H435" s="143"/>
-      <c r="I435" s="143"/>
+      <c r="C435" s="139"/>
+      <c r="D435" s="139"/>
+      <c r="E435" s="139"/>
+      <c r="F435" s="139"/>
+      <c r="G435" s="139"/>
+      <c r="H435" s="139"/>
+      <c r="I435" s="139"/>
     </row>
     <row r="436" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="28"/>
-      <c r="B436" s="143" t="s">
+      <c r="B436" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="C436" s="143"/>
-      <c r="D436" s="143"/>
-      <c r="E436" s="143"/>
-      <c r="F436" s="143"/>
-      <c r="G436" s="143"/>
-      <c r="H436" s="143"/>
-      <c r="I436" s="143"/>
+      <c r="C436" s="139"/>
+      <c r="D436" s="139"/>
+      <c r="E436" s="139"/>
+      <c r="F436" s="139"/>
+      <c r="G436" s="139"/>
+      <c r="H436" s="139"/>
+      <c r="I436" s="139"/>
     </row>
     <row r="437" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="28"/>
-      <c r="B437" s="143" t="s">
+      <c r="B437" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="C437" s="143"/>
-      <c r="D437" s="143"/>
-      <c r="E437" s="143"/>
-      <c r="F437" s="143"/>
-      <c r="G437" s="143"/>
-      <c r="H437" s="143"/>
-      <c r="I437" s="143"/>
+      <c r="C437" s="139"/>
+      <c r="D437" s="139"/>
+      <c r="E437" s="139"/>
+      <c r="F437" s="139"/>
+      <c r="G437" s="139"/>
+      <c r="H437" s="139"/>
+      <c r="I437" s="139"/>
     </row>
     <row r="438" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="28"/>
-      <c r="B438" s="143" t="s">
+      <c r="B438" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="C438" s="143"/>
-      <c r="D438" s="143"/>
-      <c r="E438" s="143"/>
-      <c r="F438" s="143"/>
-      <c r="G438" s="143"/>
-      <c r="H438" s="143"/>
-      <c r="I438" s="143"/>
+      <c r="C438" s="139"/>
+      <c r="D438" s="139"/>
+      <c r="E438" s="139"/>
+      <c r="F438" s="139"/>
+      <c r="G438" s="139"/>
+      <c r="H438" s="139"/>
+      <c r="I438" s="139"/>
     </row>
     <row r="439" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="28"/>
-      <c r="B439" s="143" t="s">
+      <c r="B439" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="C439" s="143"/>
-      <c r="D439" s="143"/>
-      <c r="E439" s="143"/>
-      <c r="F439" s="143"/>
-      <c r="G439" s="143"/>
-      <c r="H439" s="143"/>
-      <c r="I439" s="143"/>
+      <c r="C439" s="139"/>
+      <c r="D439" s="139"/>
+      <c r="E439" s="139"/>
+      <c r="F439" s="139"/>
+      <c r="G439" s="139"/>
+      <c r="H439" s="139"/>
+      <c r="I439" s="139"/>
     </row>
     <row r="440" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="28">
         <v>13</v>
       </c>
-      <c r="B440" s="143" t="s">
+      <c r="B440" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="C440" s="143"/>
-      <c r="D440" s="143"/>
-      <c r="E440" s="143"/>
-      <c r="F440" s="143"/>
-      <c r="G440" s="143"/>
-      <c r="H440" s="143"/>
-      <c r="I440" s="143"/>
+      <c r="C440" s="139"/>
+      <c r="D440" s="139"/>
+      <c r="E440" s="139"/>
+      <c r="F440" s="139"/>
+      <c r="G440" s="139"/>
+      <c r="H440" s="139"/>
+      <c r="I440" s="139"/>
     </row>
     <row r="441" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="28"/>
-      <c r="B441" s="143" t="s">
+      <c r="B441" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="C441" s="143"/>
-      <c r="D441" s="143"/>
-      <c r="E441" s="143"/>
-      <c r="F441" s="143"/>
-      <c r="G441" s="143"/>
-      <c r="H441" s="143"/>
-      <c r="I441" s="143"/>
+      <c r="C441" s="139"/>
+      <c r="D441" s="139"/>
+      <c r="E441" s="139"/>
+      <c r="F441" s="139"/>
+      <c r="G441" s="139"/>
+      <c r="H441" s="139"/>
+      <c r="I441" s="139"/>
     </row>
     <row r="442" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="28"/>
-      <c r="B442" s="143" t="s">
+      <c r="B442" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="C442" s="143"/>
-      <c r="D442" s="143"/>
-      <c r="E442" s="143"/>
-      <c r="F442" s="143"/>
-      <c r="G442" s="143"/>
-      <c r="H442" s="143"/>
-      <c r="I442" s="143"/>
+      <c r="C442" s="139"/>
+      <c r="D442" s="139"/>
+      <c r="E442" s="139"/>
+      <c r="F442" s="139"/>
+      <c r="G442" s="139"/>
+      <c r="H442" s="139"/>
+      <c r="I442" s="139"/>
     </row>
     <row r="443" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="28">
         <v>14</v>
       </c>
-      <c r="B443" s="143" t="s">
+      <c r="B443" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="C443" s="143"/>
-      <c r="D443" s="143"/>
-      <c r="E443" s="143"/>
-      <c r="F443" s="143"/>
-      <c r="G443" s="143"/>
-      <c r="H443" s="143"/>
-      <c r="I443" s="143"/>
+      <c r="C443" s="139"/>
+      <c r="D443" s="139"/>
+      <c r="E443" s="139"/>
+      <c r="F443" s="139"/>
+      <c r="G443" s="139"/>
+      <c r="H443" s="139"/>
+      <c r="I443" s="139"/>
     </row>
     <row r="444" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="28"/>
-      <c r="B444" s="143" t="s">
+      <c r="B444" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="C444" s="143"/>
-      <c r="D444" s="143"/>
-      <c r="E444" s="143"/>
-      <c r="F444" s="143"/>
-      <c r="G444" s="143"/>
-      <c r="H444" s="143"/>
-      <c r="I444" s="143"/>
+      <c r="C444" s="139"/>
+      <c r="D444" s="139"/>
+      <c r="E444" s="139"/>
+      <c r="F444" s="139"/>
+      <c r="G444" s="139"/>
+      <c r="H444" s="139"/>
+      <c r="I444" s="139"/>
     </row>
     <row r="445" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="28"/>
-      <c r="B445" s="143" t="s">
+      <c r="B445" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="C445" s="143"/>
-      <c r="D445" s="143"/>
-      <c r="E445" s="143"/>
-      <c r="F445" s="143"/>
-      <c r="G445" s="143"/>
-      <c r="H445" s="143"/>
-      <c r="I445" s="143"/>
+      <c r="C445" s="139"/>
+      <c r="D445" s="139"/>
+      <c r="E445" s="139"/>
+      <c r="F445" s="139"/>
+      <c r="G445" s="139"/>
+      <c r="H445" s="139"/>
+      <c r="I445" s="139"/>
     </row>
     <row r="446" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="28"/>
-      <c r="B446" s="143" t="s">
+      <c r="B446" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="C446" s="143"/>
-      <c r="D446" s="143"/>
-      <c r="E446" s="143"/>
-      <c r="F446" s="143"/>
-      <c r="G446" s="143"/>
-      <c r="H446" s="143"/>
-      <c r="I446" s="143"/>
+      <c r="C446" s="139"/>
+      <c r="D446" s="139"/>
+      <c r="E446" s="139"/>
+      <c r="F446" s="139"/>
+      <c r="G446" s="139"/>
+      <c r="H446" s="139"/>
+      <c r="I446" s="139"/>
     </row>
     <row r="447" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="28"/>
-      <c r="B447" s="143" t="s">
+      <c r="B447" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="C447" s="143"/>
-      <c r="D447" s="143"/>
-      <c r="E447" s="143"/>
-      <c r="F447" s="143"/>
-      <c r="G447" s="143"/>
-      <c r="H447" s="143"/>
-      <c r="I447" s="143"/>
+      <c r="C447" s="139"/>
+      <c r="D447" s="139"/>
+      <c r="E447" s="139"/>
+      <c r="F447" s="139"/>
+      <c r="G447" s="139"/>
+      <c r="H447" s="139"/>
+      <c r="I447" s="139"/>
     </row>
     <row r="448" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="28">
         <v>15</v>
       </c>
-      <c r="B448" s="143" t="s">
+      <c r="B448" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C448" s="143"/>
-      <c r="D448" s="143"/>
-      <c r="E448" s="143"/>
-      <c r="F448" s="143"/>
-      <c r="G448" s="143"/>
-      <c r="H448" s="143"/>
-      <c r="I448" s="143"/>
+      <c r="C448" s="139"/>
+      <c r="D448" s="139"/>
+      <c r="E448" s="139"/>
+      <c r="F448" s="139"/>
+      <c r="G448" s="139"/>
+      <c r="H448" s="139"/>
+      <c r="I448" s="139"/>
     </row>
     <row r="449" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="28">
         <v>16</v>
       </c>
-      <c r="B449" s="143" t="s">
+      <c r="B449" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="C449" s="143"/>
-      <c r="D449" s="143"/>
-      <c r="E449" s="143"/>
-      <c r="F449" s="143"/>
-      <c r="G449" s="143"/>
-      <c r="H449" s="143"/>
-      <c r="I449" s="143"/>
+      <c r="C449" s="139"/>
+      <c r="D449" s="139"/>
+      <c r="E449" s="139"/>
+      <c r="F449" s="139"/>
+      <c r="G449" s="139"/>
+      <c r="H449" s="139"/>
+      <c r="I449" s="139"/>
     </row>
     <row r="450" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="28">
         <v>17</v>
       </c>
-      <c r="B450" s="143" t="s">
+      <c r="B450" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C450" s="143"/>
-      <c r="D450" s="143"/>
-      <c r="E450" s="143"/>
-      <c r="F450" s="143"/>
-      <c r="G450" s="143"/>
-      <c r="H450" s="143"/>
-      <c r="I450" s="143"/>
+      <c r="C450" s="139"/>
+      <c r="D450" s="139"/>
+      <c r="E450" s="139"/>
+      <c r="F450" s="139"/>
+      <c r="G450" s="139"/>
+      <c r="H450" s="139"/>
+      <c r="I450" s="139"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="52"/>
@@ -9495,7 +9460,108 @@
       <c r="A455" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="125">
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B364:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="D364:G365"/>
+    <mergeCell ref="D366:G366"/>
+    <mergeCell ref="D367:G367"/>
+    <mergeCell ref="D368:G368"/>
+    <mergeCell ref="D369:G369"/>
+    <mergeCell ref="D370:G370"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D352:E352"/>
+    <mergeCell ref="B349:I349"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B317:I320"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="F403:G403"/>
+    <mergeCell ref="B376:I377"/>
+    <mergeCell ref="B424:I424"/>
+    <mergeCell ref="B411:I411"/>
+    <mergeCell ref="B412:I412"/>
+    <mergeCell ref="B413:I413"/>
+    <mergeCell ref="B414:I414"/>
+    <mergeCell ref="B420:I420"/>
+    <mergeCell ref="B415:I415"/>
+    <mergeCell ref="B416:I416"/>
+    <mergeCell ref="B417:I417"/>
+    <mergeCell ref="B418:I418"/>
+    <mergeCell ref="B419:I419"/>
+    <mergeCell ref="B421:I421"/>
+    <mergeCell ref="B422:I422"/>
+    <mergeCell ref="B423:I423"/>
+    <mergeCell ref="B406:I406"/>
+    <mergeCell ref="B407:I407"/>
+    <mergeCell ref="B408:I408"/>
+    <mergeCell ref="B409:I409"/>
+    <mergeCell ref="B410:I410"/>
+    <mergeCell ref="B438:I438"/>
+    <mergeCell ref="B425:I425"/>
+    <mergeCell ref="B426:I426"/>
+    <mergeCell ref="B427:I427"/>
+    <mergeCell ref="B428:I428"/>
+    <mergeCell ref="B429:I429"/>
+    <mergeCell ref="B430:I430"/>
+    <mergeCell ref="B431:I431"/>
+    <mergeCell ref="B432:I432"/>
+    <mergeCell ref="B434:I434"/>
+    <mergeCell ref="B435:I435"/>
+    <mergeCell ref="B436:I436"/>
+    <mergeCell ref="B437:I437"/>
+    <mergeCell ref="B450:I450"/>
+    <mergeCell ref="B439:I439"/>
+    <mergeCell ref="B440:I440"/>
+    <mergeCell ref="B441:I441"/>
+    <mergeCell ref="B442:I442"/>
+    <mergeCell ref="B443:I443"/>
+    <mergeCell ref="B444:I444"/>
+    <mergeCell ref="B445:I445"/>
+    <mergeCell ref="B446:I446"/>
+    <mergeCell ref="B447:I447"/>
+    <mergeCell ref="B448:I448"/>
+    <mergeCell ref="B449:I449"/>
+    <mergeCell ref="M56:T59"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M284:T284"/>
+    <mergeCell ref="M226:T226"/>
+    <mergeCell ref="M273:T273"/>
+    <mergeCell ref="M277:T277"/>
+    <mergeCell ref="M281:T281"/>
+    <mergeCell ref="M283:T283"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="B91:I93"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B86:I87"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A53:I54"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="B125:C129"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D128:I128"/>
     <mergeCell ref="H364:H365"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="A56:I59"/>
@@ -9520,105 +9586,6 @@
     <mergeCell ref="B120:C124"/>
     <mergeCell ref="D120:I120"/>
     <mergeCell ref="D121:I121"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M284:T284"/>
-    <mergeCell ref="M226:T226"/>
-    <mergeCell ref="M273:T273"/>
-    <mergeCell ref="M277:T277"/>
-    <mergeCell ref="M281:T281"/>
-    <mergeCell ref="M283:T283"/>
-    <mergeCell ref="Q54:X54"/>
-    <mergeCell ref="B91:I93"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B86:I87"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A53:I54"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="B125:C129"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="B450:I450"/>
-    <mergeCell ref="B439:I439"/>
-    <mergeCell ref="B440:I440"/>
-    <mergeCell ref="B441:I441"/>
-    <mergeCell ref="B442:I442"/>
-    <mergeCell ref="B443:I443"/>
-    <mergeCell ref="B444:I444"/>
-    <mergeCell ref="B445:I445"/>
-    <mergeCell ref="B446:I446"/>
-    <mergeCell ref="B447:I447"/>
-    <mergeCell ref="B448:I448"/>
-    <mergeCell ref="B449:I449"/>
-    <mergeCell ref="B438:I438"/>
-    <mergeCell ref="B425:I425"/>
-    <mergeCell ref="B426:I426"/>
-    <mergeCell ref="B427:I427"/>
-    <mergeCell ref="B428:I428"/>
-    <mergeCell ref="B429:I429"/>
-    <mergeCell ref="B430:I430"/>
-    <mergeCell ref="B431:I431"/>
-    <mergeCell ref="B432:I432"/>
-    <mergeCell ref="B434:I434"/>
-    <mergeCell ref="B435:I435"/>
-    <mergeCell ref="B436:I436"/>
-    <mergeCell ref="B437:I437"/>
-    <mergeCell ref="F403:G403"/>
-    <mergeCell ref="B376:I377"/>
-    <mergeCell ref="B424:I424"/>
-    <mergeCell ref="B411:I411"/>
-    <mergeCell ref="B412:I412"/>
-    <mergeCell ref="B413:I413"/>
-    <mergeCell ref="B414:I414"/>
-    <mergeCell ref="B420:I420"/>
-    <mergeCell ref="B415:I415"/>
-    <mergeCell ref="B416:I416"/>
-    <mergeCell ref="B417:I417"/>
-    <mergeCell ref="B418:I418"/>
-    <mergeCell ref="B419:I419"/>
-    <mergeCell ref="B421:I421"/>
-    <mergeCell ref="B422:I422"/>
-    <mergeCell ref="B423:I423"/>
-    <mergeCell ref="B406:I406"/>
-    <mergeCell ref="B407:I407"/>
-    <mergeCell ref="B408:I408"/>
-    <mergeCell ref="B409:I409"/>
-    <mergeCell ref="B410:I410"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="B349:I349"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B317:I320"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B364:C365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="E364:E365"/>
-    <mergeCell ref="F364:F365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="G364:G365"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -9701,21 +9668,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9731,24 +9698,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9771,46 +9738,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="209" t="s">
+      <c r="F15" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="F16" s="213" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="F16" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="209"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -9824,43 +9791,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="210"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -9879,17 +9846,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="208"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9900,257 +9867,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169" t="s">
+      <c r="C28" s="151"/>
+      <c r="D28" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="D30" s="205" t="s">
+      <c r="C30" s="161"/>
+      <c r="D30" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="206"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="205" t="s">
+      <c r="C33" s="161"/>
+      <c r="D33" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="205" t="s">
+      <c r="C36" s="161"/>
+      <c r="D36" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="166"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="205" t="s">
+      <c r="C39" s="161"/>
+      <c r="D39" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="166"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="168" t="s">
+      <c r="A44" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="170" t="s">
+      <c r="B47" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="170" t="s">
+      <c r="C47" s="165"/>
+      <c r="D47" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="175"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="169"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="172"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="178"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="184" t="s">
+      <c r="B49" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="185"/>
-      <c r="D49" s="188" t="s">
+      <c r="C49" s="179"/>
+      <c r="D49" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="189"/>
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="190"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="184"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="186"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="192"/>
-      <c r="F50" s="192"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="193"/>
+      <c r="B50" s="180"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="187"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="184" t="s">
+      <c r="B51" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="185"/>
-      <c r="D51" s="194" t="s">
+      <c r="C51" s="179"/>
+      <c r="D51" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="196"/>
+      <c r="E51" s="189"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="189"/>
+      <c r="H51" s="190"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="203"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
-      <c r="H52" s="199"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="193"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="186"/>
-      <c r="C53" s="187"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="201"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="202"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="195"/>
+      <c r="G53" s="195"/>
+      <c r="H53" s="196"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="182" t="s">
+      <c r="B54" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="179" t="s">
+      <c r="C54" s="177"/>
+      <c r="D54" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="181"/>
+      <c r="E54" s="174"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="175"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -10188,110 +10155,90 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="169" t="s">
+      <c r="B61" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169" t="s">
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="151"/>
+      <c r="F62" s="151"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="166" t="s">
+      <c r="B63" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166" t="s">
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
+      <c r="G63" s="161"/>
+      <c r="H63" s="161"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="166"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="166"/>
-      <c r="F64" s="166"/>
-      <c r="G64" s="166"/>
-      <c r="H64" s="166"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="161"/>
+      <c r="H64" s="161"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="166" t="s">
+      <c r="B65" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166" t="s">
+      <c r="C65" s="161"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="161"/>
+      <c r="F65" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="166"/>
-      <c r="H65" s="166"/>
+      <c r="G65" s="161"/>
+      <c r="H65" s="161"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="166"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="166"/>
-      <c r="F66" s="166"/>
-      <c r="G66" s="166"/>
-      <c r="H66" s="166"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="161"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="161"/>
+      <c r="H66" s="161"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="167" t="s">
+      <c r="A73" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="167"/>
-      <c r="C73" s="167"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="168"/>
-      <c r="B74" s="168"/>
-      <c r="C74" s="168"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="163"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
-      <c r="B75" s="168"/>
-      <c r="C75" s="168"/>
+      <c r="A75" s="163"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -10308,6 +10255,26 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10426,39 +10393,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="215" t="s">
+      <c r="D13" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="215"/>
+      <c r="E13" s="206"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="216" t="s">
+      <c r="G13" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="217" t="s">
+      <c r="D14" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="217"/>
-      <c r="G14" s="218" t="s">
+      <c r="E14" s="223"/>
+      <c r="G14" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="216" t="s">
+      <c r="D15" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -10468,265 +10435,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="221" t="s">
+      <c r="D26" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="223"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="227" t="s">
+      <c r="D27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="229"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="225"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="231"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="218"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="226"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="234"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="227" t="s">
+      <c r="D30" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="229"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="225"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="231"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="218"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="226"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="234"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="224" t="s">
+      <c r="C33" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="227" t="s">
+      <c r="D33" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="229"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="225"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="231"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="218"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="226"/>
-      <c r="D35" s="232"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="234"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="224" t="s">
+      <c r="C36" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="227" t="s">
+      <c r="D36" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="229"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="225"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="231"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="218"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="226"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="234"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="146" t="s">
+      <c r="L39" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="146"/>
-      <c r="R39" s="146"/>
-      <c r="S39" s="146"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="146" t="s">
+      <c r="L42" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="146"/>
-      <c r="R42" s="146"/>
-      <c r="S42" s="146"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10767,157 +10734,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="221" t="s">
+      <c r="D58" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="222"/>
-      <c r="F58" s="222"/>
-      <c r="G58" s="222"/>
-      <c r="H58" s="222"/>
-      <c r="I58" s="223"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="220"/>
+      <c r="G58" s="220"/>
+      <c r="H58" s="220"/>
+      <c r="I58" s="221"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="224" t="s">
+      <c r="C59" s="208" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="227" t="s">
+      <c r="D59" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="228"/>
-      <c r="F59" s="228"/>
-      <c r="G59" s="228"/>
-      <c r="H59" s="228"/>
-      <c r="I59" s="229"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="211"/>
+      <c r="G59" s="211"/>
+      <c r="H59" s="211"/>
+      <c r="I59" s="212"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="226"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="233"/>
-      <c r="F60" s="233"/>
-      <c r="G60" s="233"/>
-      <c r="H60" s="233"/>
-      <c r="I60" s="234"/>
+      <c r="C60" s="209"/>
+      <c r="D60" s="213"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="214"/>
+      <c r="G60" s="214"/>
+      <c r="H60" s="214"/>
+      <c r="I60" s="215"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="224" t="s">
+      <c r="C61" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="227" t="s">
+      <c r="D61" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="228"/>
-      <c r="F61" s="228"/>
-      <c r="G61" s="228"/>
-      <c r="H61" s="228"/>
-      <c r="I61" s="229"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="211"/>
+      <c r="I61" s="212"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="226"/>
-      <c r="D62" s="232"/>
-      <c r="E62" s="233"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="233"/>
-      <c r="H62" s="233"/>
-      <c r="I62" s="234"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="214"/>
+      <c r="F62" s="214"/>
+      <c r="G62" s="214"/>
+      <c r="H62" s="214"/>
+      <c r="I62" s="215"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="224" t="s">
+      <c r="C63" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="227" t="s">
+      <c r="D63" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="228"/>
-      <c r="F63" s="228"/>
-      <c r="G63" s="228"/>
-      <c r="H63" s="228"/>
-      <c r="I63" s="229"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
+      <c r="G63" s="211"/>
+      <c r="H63" s="211"/>
+      <c r="I63" s="212"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="226"/>
-      <c r="D64" s="232"/>
-      <c r="E64" s="233"/>
-      <c r="F64" s="233"/>
-      <c r="G64" s="233"/>
-      <c r="H64" s="233"/>
-      <c r="I64" s="234"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
+      <c r="I64" s="215"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="224" t="s">
+      <c r="C65" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="227" t="s">
+      <c r="D65" s="210" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="228"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="228"/>
-      <c r="H65" s="228"/>
-      <c r="I65" s="229"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="211"/>
+      <c r="I65" s="212"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="225"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="231"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="218"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="226"/>
-      <c r="D67" s="232"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="233"/>
-      <c r="G67" s="233"/>
-      <c r="H67" s="233"/>
-      <c r="I67" s="234"/>
+      <c r="C67" s="209"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="214"/>
+      <c r="G67" s="214"/>
+      <c r="H67" s="214"/>
+      <c r="I67" s="215"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="224" t="s">
+      <c r="C68" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="227" t="s">
+      <c r="D68" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="229"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="212"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="225"/>
-      <c r="D69" s="230"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="231"/>
+      <c r="C69" s="216"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="218"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="226"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="233"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="233"/>
-      <c r="H70" s="233"/>
-      <c r="I70" s="234"/>
+      <c r="C70" s="209"/>
+      <c r="D70" s="213"/>
+      <c r="E70" s="214"/>
+      <c r="F70" s="214"/>
+      <c r="G70" s="214"/>
+      <c r="H70" s="214"/>
+      <c r="I70" s="215"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10928,53 +10895,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="236" t="s">
+      <c r="D74" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="237"/>
-      <c r="F74" s="237"/>
-      <c r="G74" s="237"/>
-      <c r="H74" s="237"/>
-      <c r="I74" s="238"/>
+      <c r="E74" s="201"/>
+      <c r="F74" s="201"/>
+      <c r="G74" s="201"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="202"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="239" t="s">
+      <c r="D75" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="240"/>
-      <c r="F75" s="240"/>
-      <c r="G75" s="240"/>
-      <c r="H75" s="240"/>
-      <c r="I75" s="241"/>
+      <c r="E75" s="204"/>
+      <c r="F75" s="204"/>
+      <c r="G75" s="204"/>
+      <c r="H75" s="204"/>
+      <c r="I75" s="205"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="239" t="s">
+      <c r="D76" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="240"/>
-      <c r="F76" s="240"/>
-      <c r="G76" s="240"/>
-      <c r="H76" s="240"/>
-      <c r="I76" s="241"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="205"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="239" t="s">
+      <c r="D77" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="240"/>
-      <c r="F77" s="240"/>
-      <c r="G77" s="240"/>
-      <c r="H77" s="240"/>
-      <c r="I77" s="241"/>
+      <c r="E77" s="204"/>
+      <c r="F77" s="204"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
+      <c r="I77" s="205"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10993,45 +10960,36 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="215" t="s">
+      <c r="C91" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="215"/>
+      <c r="D91" s="206"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="242">
+      <c r="G91" s="207">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="242"/>
-      <c r="I91" s="242"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="207"/>
+      <c r="I91" s="207"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="235"/>
-      <c r="H92" s="235"/>
+      <c r="G92" s="199"/>
+      <c r="H92" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11045,16 +11003,25 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -11177,40 +11144,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="215" t="s">
+      <c r="C13" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="215"/>
+      <c r="D13" s="206"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="215" t="s">
+      <c r="F13" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="217"/>
-      <c r="F14" s="217" t="s">
+      <c r="D14" s="223"/>
+      <c r="F14" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -11219,232 +11186,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="243" t="s">
+      <c r="D26" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="244" t="s">
+      <c r="C27" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="244"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="245"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="244"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="245"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="245"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="244" t="s">
+      <c r="C30" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="245" t="s">
+      <c r="D30" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="245"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="229"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="244"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="245"/>
-      <c r="F31" s="245"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="245"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="244"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="245"/>
-      <c r="F32" s="245"/>
-      <c r="G32" s="245"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="245"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="244" t="s">
+      <c r="C33" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="245" t="s">
+      <c r="D33" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="245"/>
-      <c r="F33" s="245"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="245"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="244"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="245"/>
-      <c r="I34" s="245"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="244"/>
-      <c r="D35" s="245"/>
-      <c r="E35" s="245"/>
-      <c r="F35" s="245"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="245"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="244" t="s">
+      <c r="C36" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="245" t="s">
+      <c r="D36" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="245"/>
-      <c r="F36" s="245"/>
-      <c r="G36" s="245"/>
-      <c r="H36" s="245"/>
-      <c r="I36" s="245"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="244"/>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="229"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="229"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="244"/>
-      <c r="D38" s="245"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="245"/>
-      <c r="G38" s="245"/>
-      <c r="H38" s="245"/>
-      <c r="I38" s="245"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="229"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11485,157 +11452,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="243" t="s">
+      <c r="D58" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="243"/>
-      <c r="F58" s="243"/>
-      <c r="G58" s="243"/>
-      <c r="H58" s="243"/>
-      <c r="I58" s="243"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="231"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="244" t="s">
+      <c r="C59" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
-      <c r="G59" s="245"/>
-      <c r="H59" s="245"/>
-      <c r="I59" s="245"/>
+      <c r="E59" s="229"/>
+      <c r="F59" s="229"/>
+      <c r="G59" s="229"/>
+      <c r="H59" s="229"/>
+      <c r="I59" s="229"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="244"/>
-      <c r="D60" s="245"/>
-      <c r="E60" s="245"/>
-      <c r="F60" s="245"/>
-      <c r="G60" s="245"/>
-      <c r="H60" s="245"/>
-      <c r="I60" s="245"/>
+      <c r="C60" s="228"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="229"/>
+      <c r="G60" s="229"/>
+      <c r="H60" s="229"/>
+      <c r="I60" s="229"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="244" t="s">
+      <c r="C61" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="245" t="s">
+      <c r="D61" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="245"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="229"/>
+      <c r="G61" s="229"/>
+      <c r="H61" s="229"/>
+      <c r="I61" s="229"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="244"/>
-      <c r="D62" s="245"/>
-      <c r="E62" s="245"/>
-      <c r="F62" s="245"/>
-      <c r="G62" s="245"/>
-      <c r="H62" s="245"/>
-      <c r="I62" s="245"/>
+      <c r="C62" s="228"/>
+      <c r="D62" s="229"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="229"/>
+      <c r="G62" s="229"/>
+      <c r="H62" s="229"/>
+      <c r="I62" s="229"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="244" t="s">
+      <c r="C63" s="228" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="245" t="s">
+      <c r="D63" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="245"/>
-      <c r="F63" s="245"/>
-      <c r="G63" s="245"/>
-      <c r="H63" s="245"/>
-      <c r="I63" s="245"/>
+      <c r="E63" s="229"/>
+      <c r="F63" s="229"/>
+      <c r="G63" s="229"/>
+      <c r="H63" s="229"/>
+      <c r="I63" s="229"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="244"/>
-      <c r="D64" s="245"/>
-      <c r="E64" s="245"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="245"/>
-      <c r="H64" s="245"/>
-      <c r="I64" s="245"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="229"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="244" t="s">
+      <c r="C65" s="228" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="245" t="s">
+      <c r="D65" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="245"/>
-      <c r="F65" s="245"/>
-      <c r="G65" s="245"/>
-      <c r="H65" s="245"/>
-      <c r="I65" s="245"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="229"/>
+      <c r="H65" s="229"/>
+      <c r="I65" s="229"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="244"/>
-      <c r="D66" s="245"/>
-      <c r="E66" s="245"/>
-      <c r="F66" s="245"/>
-      <c r="G66" s="245"/>
-      <c r="H66" s="245"/>
-      <c r="I66" s="245"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="229"/>
+      <c r="E66" s="229"/>
+      <c r="F66" s="229"/>
+      <c r="G66" s="229"/>
+      <c r="H66" s="229"/>
+      <c r="I66" s="229"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="244"/>
-      <c r="D67" s="245"/>
-      <c r="E67" s="245"/>
-      <c r="F67" s="245"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="245"/>
-      <c r="I67" s="245"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="229"/>
+      <c r="E67" s="229"/>
+      <c r="F67" s="229"/>
+      <c r="G67" s="229"/>
+      <c r="H67" s="229"/>
+      <c r="I67" s="229"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="244" t="s">
+      <c r="C68" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="245" t="s">
+      <c r="D68" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="245"/>
-      <c r="F68" s="245"/>
-      <c r="G68" s="245"/>
-      <c r="H68" s="245"/>
-      <c r="I68" s="245"/>
+      <c r="E68" s="229"/>
+      <c r="F68" s="229"/>
+      <c r="G68" s="229"/>
+      <c r="H68" s="229"/>
+      <c r="I68" s="229"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="244"/>
-      <c r="D69" s="245"/>
-      <c r="E69" s="245"/>
-      <c r="F69" s="245"/>
-      <c r="G69" s="245"/>
-      <c r="H69" s="245"/>
-      <c r="I69" s="245"/>
+      <c r="C69" s="228"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="244"/>
-      <c r="D70" s="245"/>
-      <c r="E70" s="245"/>
-      <c r="F70" s="245"/>
-      <c r="G70" s="245"/>
-      <c r="H70" s="245"/>
-      <c r="I70" s="245"/>
+      <c r="C70" s="228"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="229"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11646,53 +11613,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="247" t="s">
+      <c r="D74" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="247"/>
-      <c r="F74" s="247"/>
-      <c r="G74" s="247"/>
-      <c r="H74" s="247"/>
-      <c r="I74" s="247"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230"/>
+      <c r="I74" s="230"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="246" t="s">
+      <c r="D75" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="246"/>
-      <c r="F75" s="246"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="246"/>
-      <c r="I75" s="246"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="227"/>
+      <c r="G75" s="227"/>
+      <c r="H75" s="227"/>
+      <c r="I75" s="227"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="246" t="s">
+      <c r="D76" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="246"/>
-      <c r="F76" s="246"/>
-      <c r="G76" s="246"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="246"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="227"/>
+      <c r="H76" s="227"/>
+      <c r="I76" s="227"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="246" t="s">
+      <c r="D77" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="246"/>
-      <c r="F77" s="246"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="246"/>
-      <c r="I77" s="246"/>
+      <c r="E77" s="227"/>
+      <c r="F77" s="227"/>
+      <c r="G77" s="227"/>
+      <c r="H77" s="227"/>
+      <c r="I77" s="227"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -11709,43 +11676,36 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="215" t="s">
+      <c r="C91" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="215"/>
+      <c r="D91" s="206"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="242">
+      <c r="G91" s="207">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="242"/>
-      <c r="I91" s="242"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="207"/>
+      <c r="I91" s="207"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11759,16 +11719,23 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -11800,7 +11767,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11837,28 +11804,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11885,15 +11852,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11918,15 +11885,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11967,16 +11934,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12066,48 +12033,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12120,16 +12087,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12143,16 +12110,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="131" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12175,227 +12142,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="168" t="s">
+      <c r="B68" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="163"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
+      <c r="I69" s="163"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="255"/>
-      <c r="C71" s="256"/>
-      <c r="D71" s="259" t="s">
+      <c r="B71" s="232"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="260"/>
-      <c r="F71" s="259" t="s">
+      <c r="E71" s="237"/>
+      <c r="F71" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="260"/>
-      <c r="H71" s="259" t="s">
+      <c r="G71" s="237"/>
+      <c r="H71" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="260"/>
+      <c r="I71" s="237"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="257"/>
-      <c r="C72" s="258"/>
-      <c r="D72" s="261"/>
-      <c r="E72" s="262"/>
-      <c r="F72" s="261"/>
-      <c r="G72" s="262"/>
-      <c r="H72" s="261"/>
-      <c r="I72" s="262"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="239"/>
+      <c r="F72" s="238"/>
+      <c r="G72" s="239"/>
+      <c r="H72" s="238"/>
+      <c r="I72" s="239"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="251" t="s">
+      <c r="B73" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="252"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249"/>
-      <c r="F73" s="250"/>
-      <c r="G73" s="249"/>
-      <c r="H73" s="250"/>
-      <c r="I73" s="249"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="240"/>
+      <c r="E73" s="241"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="241"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="168" t="s">
+      <c r="B75" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="168"/>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="168"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="253" t="s">
+      <c r="E78" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="254"/>
-      <c r="G78" s="254"/>
-      <c r="H78" s="254"/>
+      <c r="F78" s="246"/>
+      <c r="G78" s="246"/>
+      <c r="H78" s="246"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="254"/>
-      <c r="F79" s="254"/>
-      <c r="G79" s="254"/>
-      <c r="H79" s="254"/>
+      <c r="E79" s="246"/>
+      <c r="F79" s="246"/>
+      <c r="G79" s="246"/>
+      <c r="H79" s="246"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="135" t="s">
+      <c r="A81" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="124"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
+      <c r="A85" s="124"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="A86" s="124"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="135"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
+      <c r="A90" s="124"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -12403,13 +12371,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12434,7 +12401,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12471,28 +12438,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -12519,15 +12486,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12552,15 +12519,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12601,16 +12568,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12700,48 +12667,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12754,16 +12721,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12777,16 +12744,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="131" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12809,221 +12776,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="168" t="s">
+      <c r="B68" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="163"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
+      <c r="I69" s="163"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="255"/>
-      <c r="C71" s="256"/>
-      <c r="D71" s="259" t="s">
+      <c r="B71" s="232"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="260"/>
-      <c r="F71" s="259" t="s">
+      <c r="E71" s="237"/>
+      <c r="F71" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="260"/>
-      <c r="H71" s="259" t="s">
+      <c r="G71" s="237"/>
+      <c r="H71" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="260"/>
+      <c r="I71" s="237"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="257"/>
-      <c r="C72" s="258"/>
-      <c r="D72" s="261"/>
-      <c r="E72" s="262"/>
-      <c r="F72" s="261"/>
-      <c r="G72" s="262"/>
-      <c r="H72" s="261"/>
-      <c r="I72" s="262"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="239"/>
+      <c r="F72" s="238"/>
+      <c r="G72" s="239"/>
+      <c r="H72" s="238"/>
+      <c r="I72" s="239"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="251" t="s">
+      <c r="B73" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="252"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249"/>
-      <c r="F73" s="250"/>
-      <c r="G73" s="249"/>
-      <c r="H73" s="250"/>
-      <c r="I73" s="249"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="240"/>
+      <c r="E73" s="241"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="241"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="168" t="s">
+      <c r="B75" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="168"/>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="168"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="168"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="168"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="253" t="s">
+      <c r="E78" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="254"/>
-      <c r="G78" s="254"/>
-      <c r="H78" s="254"/>
+      <c r="F78" s="246"/>
+      <c r="G78" s="246"/>
+      <c r="H78" s="246"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="254"/>
-      <c r="F79" s="254"/>
-      <c r="G79" s="254"/>
-      <c r="H79" s="254"/>
+      <c r="E79" s="246"/>
+      <c r="F79" s="246"/>
+      <c r="G79" s="246"/>
+      <c r="H79" s="246"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="135" t="s">
+      <c r="A81" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="124"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
+      <c r="A85" s="124"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="A86" s="124"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="135"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
+      <c r="A90" s="124"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:E73"/>
@@ -13031,19 +13011,6 @@
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/app/resource/xlsx/major_proposal_template_4_case3.xlsx
+++ b/app/resource/xlsx/major_proposal_template_4_case3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855AF42-1877-4959-8DA1-EBD3525FE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C4349-C00A-42DE-9584-EC6FE37F7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="288">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -985,9 +985,6 @@
 </t>
   </si>
   <si>
-    <t>The project is a boarding house develop and consists of:</t>
-  </si>
-  <si>
     <t>Plant room ventilations, including storage rooms, grease arrest room, garbage rooms, etc.</t>
   </si>
   <si>
@@ -1017,12 +1014,6 @@
   </si>
   <si>
     <t xml:space="preserve">General Scope of Staging </t>
-  </si>
-  <si>
-    <t>Scope of Mechanical and Fire Protection comprises the following stages:</t>
-  </si>
-  <si>
-    <t>Desigin Application</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1028,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,6 +1266,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1302,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1779,55 +1776,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1836,7 +1784,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2133,9 +2081,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2143,17 +2088,104 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2162,83 +2194,131 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2260,119 +2340,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2395,83 +2421,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2497,68 +2484,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3888,14 +3818,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y455"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A352" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D370" sqref="D370:G370"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A105" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
@@ -3906,67 +3837,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="145" t="s">
+      <c r="F37" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="144" t="s">
+      <c r="F38" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="144" t="s">
+      <c r="F39" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="144" t="s">
+      <c r="F40" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="144" t="s">
+      <c r="F41" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3974,28 +3905,28 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="143"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123" t="e">
+        <v>280</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4003,10 +3934,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4069,15 +4000,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4102,26 +4033,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4129,93 +4060,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="137"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="137"/>
-      <c r="T54" s="137"/>
-      <c r="U54" s="137"/>
-      <c r="V54" s="137"/>
-      <c r="W54" s="137"/>
-      <c r="X54" s="137"/>
+      <c r="Q54" s="152"/>
+      <c r="R54" s="152"/>
+      <c r="S54" s="152"/>
+      <c r="T54" s="152"/>
+      <c r="U54" s="152"/>
+      <c r="V54" s="152"/>
+      <c r="W54" s="152"/>
+      <c r="X54" s="152"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="M56" s="150"/>
+      <c r="N56" s="150"/>
+      <c r="O56" s="150"/>
+      <c r="P56" s="150"/>
+      <c r="Q56" s="150"/>
+      <c r="R56" s="150"/>
+      <c r="S56" s="150"/>
+      <c r="T56" s="150"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="150"/>
+      <c r="R57" s="150"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="150"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="M58" s="150"/>
+      <c r="N58" s="150"/>
+      <c r="O58" s="150"/>
+      <c r="P58" s="150"/>
+      <c r="Q58" s="150"/>
+      <c r="R58" s="150"/>
+      <c r="S58" s="150"/>
+      <c r="T58" s="150"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="135"/>
-      <c r="P59" s="135"/>
-      <c r="Q59" s="135"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="135"/>
-      <c r="T59" s="135"/>
+      <c r="A59" s="143"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="150"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
+      <c r="S59" s="150"/>
+      <c r="T59" s="150"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4233,30 +4164,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="143"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4268,16 +4199,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="143"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="143"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4287,32 +4218,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4321,16 +4252,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="143"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4351,29 +4282,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="143"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124"/>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
+      <c r="A69" s="143"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4522,24 +4453,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4588,16 +4519,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="143"/>
+      <c r="E91" s="143"/>
+      <c r="F91" s="143"/>
+      <c r="G91" s="143"/>
+      <c r="H91" s="143"/>
+      <c r="I91" s="143"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4606,25 +4537,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="124"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="124"/>
+      <c r="B92" s="143"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="143"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="143"/>
+      <c r="I92" s="143"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="124"/>
-      <c r="H93" s="124"/>
-      <c r="I93" s="124"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="143"/>
+      <c r="E93" s="143"/>
+      <c r="F93" s="143"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="143"/>
+      <c r="I93" s="143"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4656,7 +4587,7 @@
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="109" t="str">
-        <f t="shared" ref="A97:A98" si="1">IF(B97&lt;&gt;"","•","")</f>
+        <f t="shared" ref="A97" si="1">IF(B97&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="B97" s="107"/>
@@ -4672,13 +4603,8 @@
       <c r="P97" s="42"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="109" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
-      </c>
-      <c r="B98" s="107" t="s">
-        <v>278</v>
-      </c>
+      <c r="A98" s="109"/>
+      <c r="B98" s="107"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
       <c r="E98" s="108"/>
@@ -4794,8 +4720,12 @@
       <c r="P106" s="42"/>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
-      <c r="B107" s="113"/>
+      <c r="A107" s="119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B107" s="120" t="s">
+        <v>287</v>
+      </c>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
@@ -4807,308 +4737,303 @@
       <c r="P107" s="42"/>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+      <c r="A108" s="109"/>
       <c r="B108" s="113"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="114"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="114"/>
+      <c r="I108" s="114"/>
       <c r="M108" s="85"/>
       <c r="P108" s="42"/>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+      <c r="A109" s="109"/>
       <c r="B109" s="113"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="108"/>
-      <c r="I109" s="108"/>
+      <c r="C109" s="114"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
+      <c r="F109" s="114"/>
+      <c r="G109" s="114"/>
+      <c r="H109" s="114"/>
+      <c r="I109" s="114"/>
       <c r="M109" s="85"/>
       <c r="P109" s="42"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+      <c r="A110" s="109"/>
       <c r="B110" s="113"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="114"/>
+      <c r="G110" s="114"/>
+      <c r="H110" s="114"/>
+      <c r="I110" s="114"/>
       <c r="M110" s="85"/>
       <c r="P110" s="42"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="120">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B111" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="253"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="114"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
       <c r="M111" s="85"/>
       <c r="P111" s="42"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="109"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
+      <c r="B112" s="254"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
       <c r="M112" s="85"/>
       <c r="P112" s="42"/>
     </row>
     <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="114" t="s">
-        <v>289</v>
-      </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="254"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
       <c r="M113" s="85"/>
       <c r="P113" s="42"/>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="109"/>
-      <c r="B114" s="129" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" s="130"/>
-      <c r="D114" s="130" t="s">
-        <v>238</v>
-      </c>
-      <c r="E114" s="130"/>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="133"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
       <c r="M114" s="85"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="109"/>
-      <c r="B115" s="131"/>
-      <c r="C115" s="132"/>
-      <c r="D115" s="132" t="s">
-        <v>273</v>
-      </c>
-      <c r="E115" s="132"/>
-      <c r="F115" s="132"/>
-      <c r="G115" s="132"/>
-      <c r="H115" s="132"/>
-      <c r="I115" s="134"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
       <c r="M115" s="85"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="109"/>
-      <c r="B116" s="131"/>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247" t="s">
-        <v>257</v>
-      </c>
-      <c r="E116" s="247"/>
-      <c r="F116" s="247"/>
-      <c r="G116" s="247"/>
-      <c r="H116" s="247"/>
-      <c r="I116" s="134"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
       <c r="M116" s="85"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="109"/>
-      <c r="B117" s="130"/>
-      <c r="C117" s="130"/>
-      <c r="D117" s="130"/>
-      <c r="E117" s="130"/>
-      <c r="F117" s="130"/>
-      <c r="G117" s="130"/>
-      <c r="H117" s="130"/>
-      <c r="I117" s="130"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
       <c r="M117" s="85"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="109"/>
-      <c r="B118" s="247"/>
-      <c r="C118" s="247"/>
-      <c r="D118" s="247"/>
-      <c r="E118" s="247"/>
-      <c r="F118" s="247"/>
-      <c r="G118" s="247"/>
-      <c r="H118" s="247"/>
-      <c r="I118" s="247"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
       <c r="M118" s="85"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="109"/>
-      <c r="B119" s="247"/>
-      <c r="C119" s="247"/>
-      <c r="D119" s="247"/>
-      <c r="E119" s="247"/>
-      <c r="F119" s="247"/>
-      <c r="G119" s="247"/>
-      <c r="H119" s="247"/>
-      <c r="I119" s="247"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
       <c r="M119" s="85"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="109"/>
-      <c r="B120" s="247"/>
-      <c r="C120" s="247"/>
-      <c r="D120" s="247"/>
-      <c r="E120" s="247"/>
-      <c r="F120" s="247"/>
-      <c r="G120" s="247"/>
-      <c r="H120" s="247"/>
-      <c r="I120" s="247"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
       <c r="M120" s="85"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="109"/>
-      <c r="B121" s="247"/>
-      <c r="C121" s="247"/>
-      <c r="D121" s="247"/>
-      <c r="E121" s="247"/>
-      <c r="F121" s="247"/>
-      <c r="G121" s="247"/>
-      <c r="H121" s="247"/>
-      <c r="I121" s="247"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
       <c r="M121" s="85"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="109"/>
-      <c r="B122" s="247"/>
-      <c r="C122" s="247"/>
-      <c r="D122" s="247"/>
-      <c r="E122" s="247"/>
-      <c r="F122" s="247"/>
-      <c r="G122" s="247"/>
-      <c r="H122" s="247"/>
-      <c r="I122" s="247"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
       <c r="M122" s="85"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="109"/>
-      <c r="B123" s="247"/>
-      <c r="C123" s="247"/>
-      <c r="D123" s="247"/>
-      <c r="E123" s="247"/>
-      <c r="F123" s="247"/>
-      <c r="G123" s="247"/>
-      <c r="H123" s="247"/>
-      <c r="I123" s="247"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
       <c r="M123" s="85"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="109"/>
-      <c r="B124" s="247"/>
-      <c r="C124" s="247"/>
-      <c r="D124" s="247"/>
-      <c r="E124" s="247"/>
-      <c r="F124" s="247"/>
-      <c r="G124" s="247"/>
-      <c r="H124" s="247"/>
-      <c r="I124" s="247"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
       <c r="M124" s="85"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="109"/>
-      <c r="B125" s="248"/>
-      <c r="C125" s="248"/>
-      <c r="D125" s="248"/>
-      <c r="E125" s="248"/>
-      <c r="F125" s="248"/>
-      <c r="G125" s="248"/>
-      <c r="H125" s="248"/>
-      <c r="I125" s="248"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
       <c r="M125" s="85"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="109"/>
-      <c r="B126" s="248"/>
-      <c r="C126" s="248"/>
-      <c r="D126" s="248"/>
-      <c r="E126" s="248"/>
-      <c r="F126" s="248"/>
-      <c r="G126" s="248"/>
-      <c r="H126" s="248"/>
-      <c r="I126" s="248"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
       <c r="M126" s="85"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="108"/>
-      <c r="B127" s="248"/>
-      <c r="C127" s="248"/>
-      <c r="D127" s="248"/>
-      <c r="E127" s="248"/>
-      <c r="F127" s="248"/>
-      <c r="G127" s="248"/>
-      <c r="H127" s="248"/>
-      <c r="I127" s="248"/>
+      <c r="A127" s="109"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
       <c r="M127" s="85"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="108"/>
-      <c r="B128" s="248"/>
-      <c r="C128" s="248"/>
-      <c r="D128" s="248"/>
-      <c r="E128" s="248"/>
-      <c r="F128" s="248"/>
-      <c r="G128" s="248"/>
-      <c r="H128" s="248"/>
-      <c r="I128" s="248"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
       <c r="M128" s="85"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="108"/>
-      <c r="B129" s="248"/>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="248"/>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="248"/>
-      <c r="I129" s="248"/>
+      <c r="A129" s="109"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
       <c r="M129" s="85"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="108"/>
+      <c r="A130" s="109"/>
       <c r="B130" s="114"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
-      <c r="F130" s="108"/>
-      <c r="G130" s="108"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
+      <c r="C130" s="114"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="114"/>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="114"/>
       <c r="M130" s="85"/>
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
@@ -6249,7 +6174,7 @@
       <c r="G225" s="28"/>
       <c r="I225" s="112"/>
       <c r="L225" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N225" s="59"/>
       <c r="O225" s="42"/>
@@ -6261,16 +6186,16 @@
         <f t="shared" ref="L226:L283" si="2">IF(M226&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M226" s="125" t="s">
+      <c r="M226" s="141" t="s">
         <v>250</v>
       </c>
-      <c r="N226" s="125"/>
-      <c r="O226" s="125"/>
-      <c r="P226" s="125"/>
-      <c r="Q226" s="125"/>
-      <c r="R226" s="125"/>
-      <c r="S226" s="125"/>
-      <c r="T226" s="125"/>
+      <c r="N226" s="141"/>
+      <c r="O226" s="141"/>
+      <c r="P226" s="141"/>
+      <c r="Q226" s="141"/>
+      <c r="R226" s="141"/>
+      <c r="S226" s="141"/>
+      <c r="T226" s="141"/>
     </row>
     <row r="227" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="31"/>
@@ -6830,16 +6755,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M273" s="125" t="s">
+      <c r="M273" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="N273" s="125"/>
-      <c r="O273" s="125"/>
-      <c r="P273" s="125"/>
-      <c r="Q273" s="125"/>
-      <c r="R273" s="125"/>
-      <c r="S273" s="125"/>
-      <c r="T273" s="125"/>
+      <c r="N273" s="141"/>
+      <c r="O273" s="141"/>
+      <c r="P273" s="141"/>
+      <c r="Q273" s="141"/>
+      <c r="R273" s="141"/>
+      <c r="S273" s="141"/>
+      <c r="T273" s="141"/>
     </row>
     <row r="274" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="31" t="str">
@@ -6896,16 +6821,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M277" s="124" t="s">
-        <v>279</v>
-      </c>
-      <c r="N277" s="124"/>
-      <c r="O277" s="124"/>
-      <c r="P277" s="124"/>
-      <c r="Q277" s="124"/>
-      <c r="R277" s="124"/>
-      <c r="S277" s="124"/>
-      <c r="T277" s="124"/>
+      <c r="M277" s="143" t="s">
+        <v>278</v>
+      </c>
+      <c r="N277" s="143"/>
+      <c r="O277" s="143"/>
+      <c r="P277" s="143"/>
+      <c r="Q277" s="143"/>
+      <c r="R277" s="143"/>
+      <c r="S277" s="143"/>
+      <c r="T277" s="143"/>
     </row>
     <row r="278" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="31"/>
@@ -6952,16 +6877,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M281" s="125" t="s">
+      <c r="M281" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="N281" s="125"/>
-      <c r="O281" s="125"/>
-      <c r="P281" s="125"/>
-      <c r="Q281" s="125"/>
-      <c r="R281" s="125"/>
-      <c r="S281" s="125"/>
-      <c r="T281" s="125"/>
+      <c r="N281" s="141"/>
+      <c r="O281" s="141"/>
+      <c r="P281" s="141"/>
+      <c r="Q281" s="141"/>
+      <c r="R281" s="141"/>
+      <c r="S281" s="141"/>
+      <c r="T281" s="141"/>
     </row>
     <row r="282" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="31"/>
@@ -6981,28 +6906,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M283" s="125" t="s">
+      <c r="M283" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="N283" s="125"/>
-      <c r="O283" s="125"/>
-      <c r="P283" s="125"/>
-      <c r="Q283" s="125"/>
-      <c r="R283" s="125"/>
-      <c r="S283" s="125"/>
-      <c r="T283" s="125"/>
+      <c r="N283" s="141"/>
+      <c r="O283" s="141"/>
+      <c r="P283" s="141"/>
+      <c r="Q283" s="141"/>
+      <c r="R283" s="141"/>
+      <c r="S283" s="141"/>
+      <c r="T283" s="141"/>
     </row>
     <row r="284" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="31"/>
       <c r="L284" s="31"/>
-      <c r="M284" s="125"/>
-      <c r="N284" s="125"/>
-      <c r="O284" s="125"/>
-      <c r="P284" s="125"/>
-      <c r="Q284" s="125"/>
-      <c r="R284" s="125"/>
-      <c r="S284" s="125"/>
-      <c r="T284" s="125"/>
+      <c r="M284" s="141"/>
+      <c r="N284" s="141"/>
+      <c r="O284" s="141"/>
+      <c r="P284" s="141"/>
+      <c r="Q284" s="141"/>
+      <c r="R284" s="141"/>
+      <c r="S284" s="141"/>
+      <c r="T284" s="141"/>
     </row>
     <row r="285" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="31"/>
@@ -7534,16 +7459,16 @@
     </row>
     <row r="317" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="60"/>
-      <c r="B317" s="124" t="s">
+      <c r="B317" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="C317" s="124"/>
-      <c r="D317" s="124"/>
-      <c r="E317" s="124"/>
-      <c r="F317" s="124"/>
-      <c r="G317" s="124"/>
-      <c r="H317" s="124"/>
-      <c r="I317" s="124"/>
+      <c r="C317" s="143"/>
+      <c r="D317" s="143"/>
+      <c r="E317" s="143"/>
+      <c r="F317" s="143"/>
+      <c r="G317" s="143"/>
+      <c r="H317" s="143"/>
+      <c r="I317" s="143"/>
       <c r="K317" s="59"/>
       <c r="N317" s="42"/>
       <c r="O317" s="42"/>
@@ -7551,14 +7476,14 @@
     </row>
     <row r="318" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="60"/>
-      <c r="B318" s="124"/>
-      <c r="C318" s="124"/>
-      <c r="D318" s="124"/>
-      <c r="E318" s="124"/>
-      <c r="F318" s="124"/>
-      <c r="G318" s="124"/>
-      <c r="H318" s="124"/>
-      <c r="I318" s="124"/>
+      <c r="B318" s="143"/>
+      <c r="C318" s="143"/>
+      <c r="D318" s="143"/>
+      <c r="E318" s="143"/>
+      <c r="F318" s="143"/>
+      <c r="G318" s="143"/>
+      <c r="H318" s="143"/>
+      <c r="I318" s="143"/>
       <c r="K318" s="59"/>
       <c r="M318" s="42"/>
       <c r="N318" s="42"/>
@@ -7567,14 +7492,14 @@
     </row>
     <row r="319" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="60"/>
-      <c r="B319" s="124"/>
-      <c r="C319" s="124"/>
-      <c r="D319" s="124"/>
-      <c r="E319" s="124"/>
-      <c r="F319" s="124"/>
-      <c r="G319" s="124"/>
-      <c r="H319" s="124"/>
-      <c r="I319" s="124"/>
+      <c r="B319" s="143"/>
+      <c r="C319" s="143"/>
+      <c r="D319" s="143"/>
+      <c r="E319" s="143"/>
+      <c r="F319" s="143"/>
+      <c r="G319" s="143"/>
+      <c r="H319" s="143"/>
+      <c r="I319" s="143"/>
       <c r="K319" s="59"/>
       <c r="M319" s="42"/>
       <c r="N319" s="42"/>
@@ -7583,14 +7508,14 @@
     </row>
     <row r="320" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="60"/>
-      <c r="B320" s="124"/>
-      <c r="C320" s="124"/>
-      <c r="D320" s="124"/>
-      <c r="E320" s="124"/>
-      <c r="F320" s="124"/>
-      <c r="G320" s="124"/>
-      <c r="H320" s="124"/>
-      <c r="I320" s="124"/>
+      <c r="B320" s="143"/>
+      <c r="C320" s="143"/>
+      <c r="D320" s="143"/>
+      <c r="E320" s="143"/>
+      <c r="F320" s="143"/>
+      <c r="G320" s="143"/>
+      <c r="H320" s="143"/>
+      <c r="I320" s="143"/>
       <c r="K320" s="59"/>
       <c r="M320" s="42"/>
       <c r="N320" s="42"/>
@@ -7633,16 +7558,16 @@
     </row>
     <row r="323" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="60"/>
-      <c r="B323" s="124" t="s">
+      <c r="B323" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="C323" s="124"/>
-      <c r="D323" s="124"/>
-      <c r="E323" s="124"/>
-      <c r="F323" s="124"/>
-      <c r="G323" s="124"/>
-      <c r="H323" s="124"/>
-      <c r="I323" s="124"/>
+      <c r="C323" s="143"/>
+      <c r="D323" s="143"/>
+      <c r="E323" s="143"/>
+      <c r="F323" s="143"/>
+      <c r="G323" s="143"/>
+      <c r="H323" s="143"/>
+      <c r="I323" s="143"/>
       <c r="K323" s="59"/>
       <c r="M323" s="42"/>
       <c r="N323" s="42"/>
@@ -7651,14 +7576,14 @@
     </row>
     <row r="324" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="60"/>
-      <c r="B324" s="124"/>
-      <c r="C324" s="124"/>
-      <c r="D324" s="124"/>
-      <c r="E324" s="124"/>
-      <c r="F324" s="124"/>
-      <c r="G324" s="124"/>
-      <c r="H324" s="124"/>
-      <c r="I324" s="124"/>
+      <c r="B324" s="143"/>
+      <c r="C324" s="143"/>
+      <c r="D324" s="143"/>
+      <c r="E324" s="143"/>
+      <c r="F324" s="143"/>
+      <c r="G324" s="143"/>
+      <c r="H324" s="143"/>
+      <c r="I324" s="143"/>
       <c r="K324" s="59" t="s">
         <v>217</v>
       </c>
@@ -7781,16 +7706,16 @@
     </row>
     <row r="331" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="59"/>
-      <c r="B331" s="125" t="s">
+      <c r="B331" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="C331" s="125"/>
-      <c r="D331" s="125"/>
-      <c r="E331" s="125"/>
-      <c r="F331" s="125"/>
-      <c r="G331" s="125"/>
-      <c r="H331" s="125"/>
-      <c r="I331" s="125"/>
+      <c r="C331" s="141"/>
+      <c r="D331" s="141"/>
+      <c r="E331" s="141"/>
+      <c r="F331" s="141"/>
+      <c r="G331" s="141"/>
+      <c r="H331" s="141"/>
+      <c r="I331" s="141"/>
       <c r="K331" s="59" t="s">
         <v>274</v>
       </c>
@@ -8031,16 +7956,16 @@
     </row>
     <row r="344" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="59"/>
-      <c r="B344" s="123" t="s">
+      <c r="B344" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C344" s="123"/>
-      <c r="D344" s="123"/>
-      <c r="E344" s="123"/>
-      <c r="F344" s="123"/>
-      <c r="G344" s="123"/>
-      <c r="H344" s="123"/>
-      <c r="I344" s="123"/>
+      <c r="C344" s="139"/>
+      <c r="D344" s="139"/>
+      <c r="E344" s="139"/>
+      <c r="F344" s="139"/>
+      <c r="G344" s="139"/>
+      <c r="H344" s="139"/>
+      <c r="I344" s="139"/>
       <c r="K344" t="s">
         <v>65</v>
       </c>
@@ -8099,16 +8024,16 @@
       <c r="P348" s="42"/>
     </row>
     <row r="349" spans="1:25" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="125" t="s">
+      <c r="B349" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="C349" s="125"/>
-      <c r="D349" s="125"/>
-      <c r="E349" s="125"/>
-      <c r="F349" s="125"/>
-      <c r="G349" s="125"/>
-      <c r="H349" s="125"/>
-      <c r="I349" s="125"/>
+      <c r="C349" s="141"/>
+      <c r="D349" s="141"/>
+      <c r="E349" s="141"/>
+      <c r="F349" s="141"/>
+      <c r="G349" s="141"/>
+      <c r="H349" s="141"/>
+      <c r="I349" s="141"/>
       <c r="K349" s="59"/>
       <c r="L349" s="61"/>
     </row>
@@ -8117,14 +8042,14 @@
         <v>142</v>
       </c>
       <c r="C350" s="77"/>
-      <c r="D350" s="126" t="s">
+      <c r="D350" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="E350" s="126"/>
-      <c r="F350" s="126" t="s">
+      <c r="E350" s="154"/>
+      <c r="F350" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="G350" s="126"/>
+      <c r="G350" s="154"/>
       <c r="H350" s="29"/>
       <c r="O350" s="25"/>
       <c r="P350" s="29"/>
@@ -8134,14 +8059,14 @@
         <v>138</v>
       </c>
       <c r="C351" s="54"/>
-      <c r="D351" s="128" t="s">
+      <c r="D351" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="E351" s="128"/>
-      <c r="F351" s="127">
+      <c r="E351" s="140"/>
+      <c r="F351" s="155">
         <v>10000000</v>
       </c>
-      <c r="G351" s="127"/>
+      <c r="G351" s="155"/>
       <c r="H351" s="48"/>
       <c r="I351" s="25"/>
       <c r="O351" s="47"/>
@@ -8152,14 +8077,14 @@
         <v>140</v>
       </c>
       <c r="C352" s="54"/>
-      <c r="D352" s="128" t="s">
+      <c r="D352" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="E352" s="128"/>
-      <c r="F352" s="127">
+      <c r="E352" s="140"/>
+      <c r="F352" s="155">
         <v>20000000</v>
       </c>
-      <c r="G352" s="127"/>
+      <c r="G352" s="155"/>
       <c r="H352" s="48"/>
       <c r="O352" s="47"/>
       <c r="P352" s="66"/>
@@ -8228,16 +8153,16 @@
     </row>
     <row r="356" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
-      <c r="B356" s="124" t="s">
+      <c r="B356" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="C356" s="124"/>
-      <c r="D356" s="124"/>
-      <c r="E356" s="124"/>
-      <c r="F356" s="124"/>
-      <c r="G356" s="124"/>
-      <c r="H356" s="124"/>
-      <c r="I356" s="124"/>
+      <c r="C356" s="143"/>
+      <c r="D356" s="143"/>
+      <c r="E356" s="143"/>
+      <c r="F356" s="143"/>
+      <c r="G356" s="143"/>
+      <c r="H356" s="143"/>
+      <c r="I356" s="143"/>
       <c r="P356" s="66"/>
       <c r="Q356" s="35"/>
       <c r="R356" s="35"/>
@@ -8246,39 +8171,39 @@
     </row>
     <row r="357" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
-      <c r="B357" s="124"/>
-      <c r="C357" s="124"/>
-      <c r="D357" s="124"/>
-      <c r="E357" s="124"/>
-      <c r="F357" s="124"/>
-      <c r="G357" s="124"/>
-      <c r="H357" s="124"/>
-      <c r="I357" s="124"/>
+      <c r="B357" s="143"/>
+      <c r="C357" s="143"/>
+      <c r="D357" s="143"/>
+      <c r="E357" s="143"/>
+      <c r="F357" s="143"/>
+      <c r="G357" s="143"/>
+      <c r="H357" s="143"/>
+      <c r="I357" s="143"/>
       <c r="P357" s="66"/>
     </row>
     <row r="358" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
-      <c r="B358" s="124"/>
-      <c r="C358" s="124"/>
-      <c r="D358" s="124"/>
-      <c r="E358" s="124"/>
-      <c r="F358" s="124"/>
-      <c r="G358" s="124"/>
-      <c r="H358" s="124"/>
-      <c r="I358" s="124"/>
+      <c r="B358" s="143"/>
+      <c r="C358" s="143"/>
+      <c r="D358" s="143"/>
+      <c r="E358" s="143"/>
+      <c r="F358" s="143"/>
+      <c r="G358" s="143"/>
+      <c r="H358" s="143"/>
+      <c r="I358" s="143"/>
       <c r="P358" s="66"/>
       <c r="S358" s="34"/>
     </row>
     <row r="359" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
-      <c r="B359" s="124"/>
-      <c r="C359" s="124"/>
-      <c r="D359" s="124"/>
-      <c r="E359" s="124"/>
-      <c r="F359" s="124"/>
-      <c r="G359" s="124"/>
-      <c r="H359" s="124"/>
-      <c r="I359" s="124"/>
+      <c r="B359" s="143"/>
+      <c r="C359" s="143"/>
+      <c r="D359" s="143"/>
+      <c r="E359" s="143"/>
+      <c r="F359" s="143"/>
+      <c r="G359" s="143"/>
+      <c r="H359" s="143"/>
+      <c r="I359" s="143"/>
       <c r="P359" s="66"/>
       <c r="Q359" s="16"/>
       <c r="R359" s="16"/>
@@ -8324,40 +8249,40 @@
       <c r="P361" s="42"/>
     </row>
     <row r="362" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="124" t="s">
+      <c r="B362" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C362" s="124"/>
-      <c r="D362" s="124"/>
-      <c r="E362" s="124"/>
-      <c r="F362" s="124"/>
-      <c r="G362" s="124"/>
-      <c r="H362" s="124"/>
-      <c r="I362" s="124"/>
+      <c r="C362" s="143"/>
+      <c r="D362" s="143"/>
+      <c r="E362" s="143"/>
+      <c r="F362" s="143"/>
+      <c r="G362" s="143"/>
+      <c r="H362" s="143"/>
+      <c r="I362" s="143"/>
     </row>
     <row r="363" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="124"/>
-      <c r="C363" s="124"/>
-      <c r="D363" s="124"/>
-      <c r="E363" s="124"/>
-      <c r="F363" s="124"/>
-      <c r="G363" s="124"/>
-      <c r="H363" s="124"/>
-      <c r="I363" s="124"/>
+      <c r="B363" s="143"/>
+      <c r="C363" s="143"/>
+      <c r="D363" s="143"/>
+      <c r="E363" s="143"/>
+      <c r="F363" s="143"/>
+      <c r="G363" s="143"/>
+      <c r="H363" s="143"/>
+      <c r="I363" s="143"/>
     </row>
     <row r="364" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="122" t="s">
+      <c r="B364" s="126" t="s">
+        <v>281</v>
+      </c>
+      <c r="C364" s="126"/>
+      <c r="D364" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="C364" s="122"/>
-      <c r="D364" s="249" t="s">
+      <c r="E364" s="128"/>
+      <c r="F364" s="128"/>
+      <c r="G364" s="129"/>
+      <c r="H364" s="126" t="s">
         <v>283</v>
-      </c>
-      <c r="E364" s="250"/>
-      <c r="F364" s="250"/>
-      <c r="G364" s="251"/>
-      <c r="H364" s="122" t="s">
-        <v>284</v>
       </c>
       <c r="I364" s="25"/>
       <c r="L364" s="59"/>
@@ -8367,13 +8292,13 @@
       <c r="P364" s="117"/>
     </row>
     <row r="365" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="122"/>
-      <c r="C365" s="122"/>
-      <c r="D365" s="252"/>
-      <c r="E365" s="253"/>
-      <c r="F365" s="253"/>
-      <c r="G365" s="254"/>
-      <c r="H365" s="122"/>
+      <c r="B365" s="126"/>
+      <c r="C365" s="126"/>
+      <c r="D365" s="130"/>
+      <c r="E365" s="131"/>
+      <c r="F365" s="131"/>
+      <c r="G365" s="132"/>
+      <c r="H365" s="126"/>
       <c r="I365" s="25"/>
       <c r="L365" s="59"/>
       <c r="M365" s="59"/>
@@ -8382,13 +8307,13 @@
       <c r="P365" s="117"/>
     </row>
     <row r="366" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="146"/>
-      <c r="C366" s="146"/>
-      <c r="D366" s="255"/>
-      <c r="E366" s="256"/>
-      <c r="F366" s="256"/>
-      <c r="G366" s="257"/>
-      <c r="H366" s="118"/>
+      <c r="B366" s="122"/>
+      <c r="C366" s="122"/>
+      <c r="D366" s="133"/>
+      <c r="E366" s="134"/>
+      <c r="F366" s="134"/>
+      <c r="G366" s="135"/>
+      <c r="H366" s="121"/>
       <c r="I366" s="25"/>
       <c r="L366" s="59"/>
       <c r="M366" s="59"/>
@@ -8397,13 +8322,13 @@
       <c r="P366" s="117"/>
     </row>
     <row r="367" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="148"/>
-      <c r="C367" s="149"/>
-      <c r="D367" s="255"/>
-      <c r="E367" s="256"/>
-      <c r="F367" s="256"/>
-      <c r="G367" s="257"/>
-      <c r="H367" s="118"/>
+      <c r="B367" s="124"/>
+      <c r="C367" s="125"/>
+      <c r="D367" s="133"/>
+      <c r="E367" s="134"/>
+      <c r="F367" s="134"/>
+      <c r="G367" s="135"/>
+      <c r="H367" s="121"/>
       <c r="I367" s="25"/>
       <c r="L367" s="59"/>
       <c r="M367" s="59"/>
@@ -8412,13 +8337,13 @@
       <c r="P367" s="117"/>
     </row>
     <row r="368" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="148"/>
-      <c r="C368" s="149"/>
-      <c r="D368" s="255"/>
-      <c r="E368" s="256"/>
-      <c r="F368" s="256"/>
-      <c r="G368" s="257"/>
-      <c r="H368" s="118"/>
+      <c r="B368" s="124"/>
+      <c r="C368" s="125"/>
+      <c r="D368" s="133"/>
+      <c r="E368" s="134"/>
+      <c r="F368" s="134"/>
+      <c r="G368" s="135"/>
+      <c r="H368" s="121"/>
       <c r="I368" s="25"/>
       <c r="L368" s="59"/>
       <c r="M368" s="59"/>
@@ -8427,13 +8352,13 @@
       <c r="P368" s="117"/>
     </row>
     <row r="369" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="148"/>
-      <c r="C369" s="149"/>
-      <c r="D369" s="255"/>
-      <c r="E369" s="256"/>
-      <c r="F369" s="256"/>
-      <c r="G369" s="257"/>
-      <c r="H369" s="118"/>
+      <c r="B369" s="124"/>
+      <c r="C369" s="125"/>
+      <c r="D369" s="133"/>
+      <c r="E369" s="134"/>
+      <c r="F369" s="134"/>
+      <c r="G369" s="135"/>
+      <c r="H369" s="121"/>
       <c r="I369" s="25"/>
       <c r="L369" s="59"/>
       <c r="M369" s="59"/>
@@ -8442,15 +8367,15 @@
       <c r="P369" s="117"/>
     </row>
     <row r="370" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="146" t="s">
-        <v>285</v>
-      </c>
-      <c r="C370" s="146"/>
-      <c r="D370" s="258"/>
-      <c r="E370" s="259"/>
-      <c r="F370" s="259"/>
-      <c r="G370" s="260"/>
-      <c r="H370" s="118"/>
+      <c r="B370" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="C370" s="122"/>
+      <c r="D370" s="136"/>
+      <c r="E370" s="137"/>
+      <c r="F370" s="137"/>
+      <c r="G370" s="138"/>
+      <c r="H370" s="121"/>
       <c r="I370" s="25"/>
       <c r="L370" s="59"/>
       <c r="M370" s="59"/>
@@ -8459,15 +8384,15 @@
       <c r="P370" s="117"/>
     </row>
     <row r="371" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="147" t="s">
-        <v>286</v>
-      </c>
-      <c r="C371" s="147"/>
-      <c r="D371" s="147"/>
-      <c r="E371" s="147"/>
-      <c r="F371" s="147"/>
-      <c r="G371" s="147"/>
-      <c r="H371" s="118"/>
+      <c r="B371" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="C371" s="123"/>
+      <c r="D371" s="123"/>
+      <c r="E371" s="123"/>
+      <c r="F371" s="123"/>
+      <c r="G371" s="123"/>
+      <c r="H371" s="121"/>
       <c r="I371" s="25"/>
       <c r="L371" s="59"/>
       <c r="M371" s="59"/>
@@ -8476,15 +8401,15 @@
       <c r="P371" s="117"/>
     </row>
     <row r="372" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="C372" s="147"/>
-      <c r="D372" s="147"/>
-      <c r="E372" s="147"/>
-      <c r="F372" s="147"/>
-      <c r="G372" s="147"/>
-      <c r="H372" s="118"/>
+      <c r="B372" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C372" s="123"/>
+      <c r="D372" s="123"/>
+      <c r="E372" s="123"/>
+      <c r="F372" s="123"/>
+      <c r="G372" s="123"/>
+      <c r="H372" s="121"/>
       <c r="I372" s="25"/>
       <c r="L372" s="59"/>
       <c r="M372" s="59"/>
@@ -8538,28 +8463,28 @@
       <c r="P375" s="66"/>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B376" s="124" t="s">
+      <c r="B376" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="C376" s="124"/>
-      <c r="D376" s="124"/>
-      <c r="E376" s="124"/>
-      <c r="F376" s="124"/>
-      <c r="G376" s="124"/>
-      <c r="H376" s="124"/>
-      <c r="I376" s="124"/>
+      <c r="C376" s="143"/>
+      <c r="D376" s="143"/>
+      <c r="E376" s="143"/>
+      <c r="F376" s="143"/>
+      <c r="G376" s="143"/>
+      <c r="H376" s="143"/>
+      <c r="I376" s="143"/>
       <c r="P376" s="66"/>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="46"/>
-      <c r="B377" s="124"/>
-      <c r="C377" s="124"/>
-      <c r="D377" s="124"/>
-      <c r="E377" s="124"/>
-      <c r="F377" s="124"/>
-      <c r="G377" s="124"/>
-      <c r="H377" s="124"/>
-      <c r="I377" s="124"/>
+      <c r="B377" s="143"/>
+      <c r="C377" s="143"/>
+      <c r="D377" s="143"/>
+      <c r="E377" s="143"/>
+      <c r="F377" s="143"/>
+      <c r="G377" s="143"/>
+      <c r="H377" s="143"/>
+      <c r="I377" s="143"/>
       <c r="P377" s="66"/>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.25">
@@ -8801,11 +8726,11 @@
       <c r="B403" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F403" s="140">
+      <c r="F403" s="148">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="G403" s="140"/>
+        <v>45308</v>
+      </c>
+      <c r="G403" s="148"/>
       <c r="K403" s="45"/>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -8825,374 +8750,374 @@
       <c r="A406" s="28">
         <v>1</v>
       </c>
-      <c r="B406" s="139" t="s">
+      <c r="B406" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="C406" s="139"/>
-      <c r="D406" s="139"/>
-      <c r="E406" s="139"/>
-      <c r="F406" s="139"/>
-      <c r="G406" s="139"/>
-      <c r="H406" s="139"/>
-      <c r="I406" s="139"/>
+      <c r="C406" s="149"/>
+      <c r="D406" s="149"/>
+      <c r="E406" s="149"/>
+      <c r="F406" s="149"/>
+      <c r="G406" s="149"/>
+      <c r="H406" s="149"/>
+      <c r="I406" s="149"/>
     </row>
     <row r="407" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="28">
         <v>2</v>
       </c>
-      <c r="B407" s="139" t="s">
+      <c r="B407" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="C407" s="139"/>
-      <c r="D407" s="139"/>
-      <c r="E407" s="139"/>
-      <c r="F407" s="139"/>
-      <c r="G407" s="139"/>
-      <c r="H407" s="139"/>
-      <c r="I407" s="139"/>
+      <c r="C407" s="149"/>
+      <c r="D407" s="149"/>
+      <c r="E407" s="149"/>
+      <c r="F407" s="149"/>
+      <c r="G407" s="149"/>
+      <c r="H407" s="149"/>
+      <c r="I407" s="149"/>
     </row>
     <row r="408" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="28">
         <v>3</v>
       </c>
-      <c r="B408" s="139" t="s">
+      <c r="B408" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="C408" s="139"/>
-      <c r="D408" s="139"/>
-      <c r="E408" s="139"/>
-      <c r="F408" s="139"/>
-      <c r="G408" s="139"/>
-      <c r="H408" s="139"/>
-      <c r="I408" s="139"/>
+      <c r="C408" s="149"/>
+      <c r="D408" s="149"/>
+      <c r="E408" s="149"/>
+      <c r="F408" s="149"/>
+      <c r="G408" s="149"/>
+      <c r="H408" s="149"/>
+      <c r="I408" s="149"/>
     </row>
     <row r="409" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="28">
         <v>4</v>
       </c>
-      <c r="B409" s="139" t="s">
+      <c r="B409" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="C409" s="139"/>
-      <c r="D409" s="139"/>
-      <c r="E409" s="139"/>
-      <c r="F409" s="139"/>
-      <c r="G409" s="139"/>
-      <c r="H409" s="139"/>
-      <c r="I409" s="139"/>
+      <c r="C409" s="149"/>
+      <c r="D409" s="149"/>
+      <c r="E409" s="149"/>
+      <c r="F409" s="149"/>
+      <c r="G409" s="149"/>
+      <c r="H409" s="149"/>
+      <c r="I409" s="149"/>
     </row>
     <row r="410" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="28">
         <v>5</v>
       </c>
-      <c r="B410" s="139" t="s">
+      <c r="B410" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="C410" s="139"/>
-      <c r="D410" s="139"/>
-      <c r="E410" s="139"/>
-      <c r="F410" s="139"/>
-      <c r="G410" s="139"/>
-      <c r="H410" s="139"/>
-      <c r="I410" s="139"/>
+      <c r="C410" s="149"/>
+      <c r="D410" s="149"/>
+      <c r="E410" s="149"/>
+      <c r="F410" s="149"/>
+      <c r="G410" s="149"/>
+      <c r="H410" s="149"/>
+      <c r="I410" s="149"/>
     </row>
     <row r="411" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
-      <c r="B411" s="139" t="s">
+      <c r="B411" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="C411" s="139"/>
-      <c r="D411" s="139"/>
-      <c r="E411" s="139"/>
-      <c r="F411" s="139"/>
-      <c r="G411" s="139"/>
-      <c r="H411" s="139"/>
-      <c r="I411" s="139"/>
+      <c r="C411" s="149"/>
+      <c r="D411" s="149"/>
+      <c r="E411" s="149"/>
+      <c r="F411" s="149"/>
+      <c r="G411" s="149"/>
+      <c r="H411" s="149"/>
+      <c r="I411" s="149"/>
     </row>
     <row r="412" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
-      <c r="B412" s="139" t="s">
+      <c r="B412" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="C412" s="139"/>
-      <c r="D412" s="139"/>
-      <c r="E412" s="139"/>
-      <c r="F412" s="139"/>
-      <c r="G412" s="139"/>
-      <c r="H412" s="139"/>
-      <c r="I412" s="139"/>
+      <c r="C412" s="149"/>
+      <c r="D412" s="149"/>
+      <c r="E412" s="149"/>
+      <c r="F412" s="149"/>
+      <c r="G412" s="149"/>
+      <c r="H412" s="149"/>
+      <c r="I412" s="149"/>
     </row>
     <row r="413" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
-      <c r="B413" s="139" t="s">
+      <c r="B413" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="C413" s="139"/>
-      <c r="D413" s="139"/>
-      <c r="E413" s="139"/>
-      <c r="F413" s="139"/>
-      <c r="G413" s="139"/>
-      <c r="H413" s="139"/>
-      <c r="I413" s="139"/>
+      <c r="C413" s="149"/>
+      <c r="D413" s="149"/>
+      <c r="E413" s="149"/>
+      <c r="F413" s="149"/>
+      <c r="G413" s="149"/>
+      <c r="H413" s="149"/>
+      <c r="I413" s="149"/>
     </row>
     <row r="414" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="28">
         <v>6</v>
       </c>
-      <c r="B414" s="139" t="s">
+      <c r="B414" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="C414" s="139"/>
-      <c r="D414" s="139"/>
-      <c r="E414" s="139"/>
-      <c r="F414" s="139"/>
-      <c r="G414" s="139"/>
-      <c r="H414" s="139"/>
-      <c r="I414" s="139"/>
+      <c r="C414" s="149"/>
+      <c r="D414" s="149"/>
+      <c r="E414" s="149"/>
+      <c r="F414" s="149"/>
+      <c r="G414" s="149"/>
+      <c r="H414" s="149"/>
+      <c r="I414" s="149"/>
     </row>
     <row r="415" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="28"/>
-      <c r="B415" s="139" t="s">
+      <c r="B415" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="C415" s="139"/>
-      <c r="D415" s="139"/>
-      <c r="E415" s="139"/>
-      <c r="F415" s="139"/>
-      <c r="G415" s="139"/>
-      <c r="H415" s="139"/>
-      <c r="I415" s="139"/>
+      <c r="C415" s="149"/>
+      <c r="D415" s="149"/>
+      <c r="E415" s="149"/>
+      <c r="F415" s="149"/>
+      <c r="G415" s="149"/>
+      <c r="H415" s="149"/>
+      <c r="I415" s="149"/>
     </row>
     <row r="416" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="28"/>
-      <c r="B416" s="139" t="s">
+      <c r="B416" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="C416" s="139"/>
-      <c r="D416" s="139"/>
-      <c r="E416" s="139"/>
-      <c r="F416" s="139"/>
-      <c r="G416" s="139"/>
-      <c r="H416" s="139"/>
-      <c r="I416" s="139"/>
+      <c r="C416" s="149"/>
+      <c r="D416" s="149"/>
+      <c r="E416" s="149"/>
+      <c r="F416" s="149"/>
+      <c r="G416" s="149"/>
+      <c r="H416" s="149"/>
+      <c r="I416" s="149"/>
     </row>
     <row r="417" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="28">
         <v>7</v>
       </c>
-      <c r="B417" s="139" t="s">
+      <c r="B417" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="C417" s="139"/>
-      <c r="D417" s="139"/>
-      <c r="E417" s="139"/>
-      <c r="F417" s="139"/>
-      <c r="G417" s="139"/>
-      <c r="H417" s="139"/>
-      <c r="I417" s="139"/>
+      <c r="C417" s="149"/>
+      <c r="D417" s="149"/>
+      <c r="E417" s="149"/>
+      <c r="F417" s="149"/>
+      <c r="G417" s="149"/>
+      <c r="H417" s="149"/>
+      <c r="I417" s="149"/>
     </row>
     <row r="418" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="28">
         <v>8</v>
       </c>
-      <c r="B418" s="139" t="s">
+      <c r="B418" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="C418" s="139"/>
-      <c r="D418" s="139"/>
-      <c r="E418" s="139"/>
-      <c r="F418" s="139"/>
-      <c r="G418" s="139"/>
-      <c r="H418" s="139"/>
-      <c r="I418" s="139"/>
+      <c r="C418" s="149"/>
+      <c r="D418" s="149"/>
+      <c r="E418" s="149"/>
+      <c r="F418" s="149"/>
+      <c r="G418" s="149"/>
+      <c r="H418" s="149"/>
+      <c r="I418" s="149"/>
     </row>
     <row r="419" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
-      <c r="B419" s="139" t="s">
+      <c r="B419" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C419" s="139"/>
-      <c r="D419" s="139"/>
-      <c r="E419" s="139"/>
-      <c r="F419" s="139"/>
-      <c r="G419" s="139"/>
-      <c r="H419" s="139"/>
-      <c r="I419" s="139"/>
+      <c r="C419" s="149"/>
+      <c r="D419" s="149"/>
+      <c r="E419" s="149"/>
+      <c r="F419" s="149"/>
+      <c r="G419" s="149"/>
+      <c r="H419" s="149"/>
+      <c r="I419" s="149"/>
     </row>
     <row r="420" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
-      <c r="B420" s="139" t="s">
+      <c r="B420" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="C420" s="139"/>
-      <c r="D420" s="139"/>
-      <c r="E420" s="139"/>
-      <c r="F420" s="139"/>
-      <c r="G420" s="139"/>
-      <c r="H420" s="139"/>
-      <c r="I420" s="139"/>
+      <c r="C420" s="149"/>
+      <c r="D420" s="149"/>
+      <c r="E420" s="149"/>
+      <c r="F420" s="149"/>
+      <c r="G420" s="149"/>
+      <c r="H420" s="149"/>
+      <c r="I420" s="149"/>
     </row>
     <row r="421" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="28"/>
-      <c r="B421" s="139" t="s">
+      <c r="B421" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="C421" s="139"/>
-      <c r="D421" s="139"/>
-      <c r="E421" s="139"/>
-      <c r="F421" s="139"/>
-      <c r="G421" s="139"/>
-      <c r="H421" s="139"/>
-      <c r="I421" s="139"/>
+      <c r="C421" s="149"/>
+      <c r="D421" s="149"/>
+      <c r="E421" s="149"/>
+      <c r="F421" s="149"/>
+      <c r="G421" s="149"/>
+      <c r="H421" s="149"/>
+      <c r="I421" s="149"/>
     </row>
     <row r="422" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="28"/>
-      <c r="B422" s="139" t="s">
+      <c r="B422" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C422" s="139"/>
-      <c r="D422" s="139"/>
-      <c r="E422" s="139"/>
-      <c r="F422" s="139"/>
-      <c r="G422" s="139"/>
-      <c r="H422" s="139"/>
-      <c r="I422" s="139"/>
+      <c r="C422" s="149"/>
+      <c r="D422" s="149"/>
+      <c r="E422" s="149"/>
+      <c r="F422" s="149"/>
+      <c r="G422" s="149"/>
+      <c r="H422" s="149"/>
+      <c r="I422" s="149"/>
     </row>
     <row r="423" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
-      <c r="B423" s="139" t="s">
+      <c r="B423" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C423" s="139"/>
-      <c r="D423" s="139"/>
-      <c r="E423" s="139"/>
-      <c r="F423" s="139"/>
-      <c r="G423" s="139"/>
-      <c r="H423" s="139"/>
-      <c r="I423" s="139"/>
+      <c r="C423" s="149"/>
+      <c r="D423" s="149"/>
+      <c r="E423" s="149"/>
+      <c r="F423" s="149"/>
+      <c r="G423" s="149"/>
+      <c r="H423" s="149"/>
+      <c r="I423" s="149"/>
     </row>
     <row r="424" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
-      <c r="B424" s="139" t="s">
+      <c r="B424" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C424" s="139"/>
-      <c r="D424" s="139"/>
-      <c r="E424" s="139"/>
-      <c r="F424" s="139"/>
-      <c r="G424" s="139"/>
-      <c r="H424" s="139"/>
-      <c r="I424" s="139"/>
+      <c r="C424" s="149"/>
+      <c r="D424" s="149"/>
+      <c r="E424" s="149"/>
+      <c r="F424" s="149"/>
+      <c r="G424" s="149"/>
+      <c r="H424" s="149"/>
+      <c r="I424" s="149"/>
     </row>
     <row r="425" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="28">
         <v>9</v>
       </c>
-      <c r="B425" s="139" t="s">
+      <c r="B425" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="C425" s="139"/>
-      <c r="D425" s="139"/>
-      <c r="E425" s="139"/>
-      <c r="F425" s="139"/>
-      <c r="G425" s="139"/>
-      <c r="H425" s="139"/>
-      <c r="I425" s="139"/>
+      <c r="C425" s="149"/>
+      <c r="D425" s="149"/>
+      <c r="E425" s="149"/>
+      <c r="F425" s="149"/>
+      <c r="G425" s="149"/>
+      <c r="H425" s="149"/>
+      <c r="I425" s="149"/>
     </row>
     <row r="426" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="28">
         <v>10</v>
       </c>
-      <c r="B426" s="139" t="s">
+      <c r="B426" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="C426" s="139"/>
-      <c r="D426" s="139"/>
-      <c r="E426" s="139"/>
-      <c r="F426" s="139"/>
-      <c r="G426" s="139"/>
-      <c r="H426" s="139"/>
-      <c r="I426" s="139"/>
+      <c r="C426" s="149"/>
+      <c r="D426" s="149"/>
+      <c r="E426" s="149"/>
+      <c r="F426" s="149"/>
+      <c r="G426" s="149"/>
+      <c r="H426" s="149"/>
+      <c r="I426" s="149"/>
     </row>
     <row r="427" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="28"/>
-      <c r="B427" s="139" t="s">
+      <c r="B427" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="C427" s="139"/>
-      <c r="D427" s="139"/>
-      <c r="E427" s="139"/>
-      <c r="F427" s="139"/>
-      <c r="G427" s="139"/>
-      <c r="H427" s="139"/>
-      <c r="I427" s="139"/>
+      <c r="C427" s="149"/>
+      <c r="D427" s="149"/>
+      <c r="E427" s="149"/>
+      <c r="F427" s="149"/>
+      <c r="G427" s="149"/>
+      <c r="H427" s="149"/>
+      <c r="I427" s="149"/>
     </row>
     <row r="428" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="28"/>
-      <c r="B428" s="139" t="s">
+      <c r="B428" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="C428" s="139"/>
-      <c r="D428" s="139"/>
-      <c r="E428" s="139"/>
-      <c r="F428" s="139"/>
-      <c r="G428" s="139"/>
-      <c r="H428" s="139"/>
-      <c r="I428" s="139"/>
+      <c r="C428" s="149"/>
+      <c r="D428" s="149"/>
+      <c r="E428" s="149"/>
+      <c r="F428" s="149"/>
+      <c r="G428" s="149"/>
+      <c r="H428" s="149"/>
+      <c r="I428" s="149"/>
     </row>
     <row r="429" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
-      <c r="B429" s="139" t="s">
+      <c r="B429" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="C429" s="139"/>
-      <c r="D429" s="139"/>
-      <c r="E429" s="139"/>
-      <c r="F429" s="139"/>
-      <c r="G429" s="139"/>
-      <c r="H429" s="139"/>
-      <c r="I429" s="139"/>
+      <c r="C429" s="149"/>
+      <c r="D429" s="149"/>
+      <c r="E429" s="149"/>
+      <c r="F429" s="149"/>
+      <c r="G429" s="149"/>
+      <c r="H429" s="149"/>
+      <c r="I429" s="149"/>
     </row>
     <row r="430" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
-      <c r="B430" s="139" t="s">
+      <c r="B430" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="C430" s="139"/>
-      <c r="D430" s="139"/>
-      <c r="E430" s="139"/>
-      <c r="F430" s="139"/>
-      <c r="G430" s="139"/>
-      <c r="H430" s="139"/>
-      <c r="I430" s="139"/>
+      <c r="C430" s="149"/>
+      <c r="D430" s="149"/>
+      <c r="E430" s="149"/>
+      <c r="F430" s="149"/>
+      <c r="G430" s="149"/>
+      <c r="H430" s="149"/>
+      <c r="I430" s="149"/>
     </row>
     <row r="431" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="28">
         <v>11</v>
       </c>
-      <c r="B431" s="139" t="s">
+      <c r="B431" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="C431" s="139"/>
-      <c r="D431" s="139"/>
-      <c r="E431" s="139"/>
-      <c r="F431" s="139"/>
-      <c r="G431" s="139"/>
-      <c r="H431" s="139"/>
-      <c r="I431" s="139"/>
+      <c r="C431" s="149"/>
+      <c r="D431" s="149"/>
+      <c r="E431" s="149"/>
+      <c r="F431" s="149"/>
+      <c r="G431" s="149"/>
+      <c r="H431" s="149"/>
+      <c r="I431" s="149"/>
     </row>
     <row r="432" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
-      <c r="B432" s="139" t="s">
+      <c r="B432" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="C432" s="139"/>
-      <c r="D432" s="139"/>
-      <c r="E432" s="139"/>
-      <c r="F432" s="139"/>
-      <c r="G432" s="139"/>
-      <c r="H432" s="139"/>
-      <c r="I432" s="139"/>
+      <c r="C432" s="149"/>
+      <c r="D432" s="149"/>
+      <c r="E432" s="149"/>
+      <c r="F432" s="149"/>
+      <c r="G432" s="149"/>
+      <c r="H432" s="149"/>
+      <c r="I432" s="149"/>
     </row>
     <row r="433" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="28"/>
@@ -9213,236 +9138,236 @@
     </row>
     <row r="434" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="28"/>
-      <c r="B434" s="139" t="s">
+      <c r="B434" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="C434" s="139"/>
-      <c r="D434" s="139"/>
-      <c r="E434" s="139"/>
-      <c r="F434" s="139"/>
-      <c r="G434" s="139"/>
-      <c r="H434" s="139"/>
-      <c r="I434" s="139"/>
+      <c r="C434" s="149"/>
+      <c r="D434" s="149"/>
+      <c r="E434" s="149"/>
+      <c r="F434" s="149"/>
+      <c r="G434" s="149"/>
+      <c r="H434" s="149"/>
+      <c r="I434" s="149"/>
     </row>
     <row r="435" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="28">
         <v>12</v>
       </c>
-      <c r="B435" s="139" t="s">
+      <c r="B435" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="C435" s="139"/>
-      <c r="D435" s="139"/>
-      <c r="E435" s="139"/>
-      <c r="F435" s="139"/>
-      <c r="G435" s="139"/>
-      <c r="H435" s="139"/>
-      <c r="I435" s="139"/>
+      <c r="C435" s="149"/>
+      <c r="D435" s="149"/>
+      <c r="E435" s="149"/>
+      <c r="F435" s="149"/>
+      <c r="G435" s="149"/>
+      <c r="H435" s="149"/>
+      <c r="I435" s="149"/>
     </row>
     <row r="436" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="28"/>
-      <c r="B436" s="139" t="s">
+      <c r="B436" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="C436" s="139"/>
-      <c r="D436" s="139"/>
-      <c r="E436" s="139"/>
-      <c r="F436" s="139"/>
-      <c r="G436" s="139"/>
-      <c r="H436" s="139"/>
-      <c r="I436" s="139"/>
+      <c r="C436" s="149"/>
+      <c r="D436" s="149"/>
+      <c r="E436" s="149"/>
+      <c r="F436" s="149"/>
+      <c r="G436" s="149"/>
+      <c r="H436" s="149"/>
+      <c r="I436" s="149"/>
     </row>
     <row r="437" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="28"/>
-      <c r="B437" s="139" t="s">
+      <c r="B437" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="C437" s="139"/>
-      <c r="D437" s="139"/>
-      <c r="E437" s="139"/>
-      <c r="F437" s="139"/>
-      <c r="G437" s="139"/>
-      <c r="H437" s="139"/>
-      <c r="I437" s="139"/>
+      <c r="C437" s="149"/>
+      <c r="D437" s="149"/>
+      <c r="E437" s="149"/>
+      <c r="F437" s="149"/>
+      <c r="G437" s="149"/>
+      <c r="H437" s="149"/>
+      <c r="I437" s="149"/>
     </row>
     <row r="438" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="28"/>
-      <c r="B438" s="139" t="s">
+      <c r="B438" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="C438" s="139"/>
-      <c r="D438" s="139"/>
-      <c r="E438" s="139"/>
-      <c r="F438" s="139"/>
-      <c r="G438" s="139"/>
-      <c r="H438" s="139"/>
-      <c r="I438" s="139"/>
+      <c r="C438" s="149"/>
+      <c r="D438" s="149"/>
+      <c r="E438" s="149"/>
+      <c r="F438" s="149"/>
+      <c r="G438" s="149"/>
+      <c r="H438" s="149"/>
+      <c r="I438" s="149"/>
     </row>
     <row r="439" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="28"/>
-      <c r="B439" s="139" t="s">
+      <c r="B439" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="C439" s="139"/>
-      <c r="D439" s="139"/>
-      <c r="E439" s="139"/>
-      <c r="F439" s="139"/>
-      <c r="G439" s="139"/>
-      <c r="H439" s="139"/>
-      <c r="I439" s="139"/>
+      <c r="C439" s="149"/>
+      <c r="D439" s="149"/>
+      <c r="E439" s="149"/>
+      <c r="F439" s="149"/>
+      <c r="G439" s="149"/>
+      <c r="H439" s="149"/>
+      <c r="I439" s="149"/>
     </row>
     <row r="440" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="28">
         <v>13</v>
       </c>
-      <c r="B440" s="139" t="s">
+      <c r="B440" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="C440" s="139"/>
-      <c r="D440" s="139"/>
-      <c r="E440" s="139"/>
-      <c r="F440" s="139"/>
-      <c r="G440" s="139"/>
-      <c r="H440" s="139"/>
-      <c r="I440" s="139"/>
+      <c r="C440" s="149"/>
+      <c r="D440" s="149"/>
+      <c r="E440" s="149"/>
+      <c r="F440" s="149"/>
+      <c r="G440" s="149"/>
+      <c r="H440" s="149"/>
+      <c r="I440" s="149"/>
     </row>
     <row r="441" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="28"/>
-      <c r="B441" s="139" t="s">
+      <c r="B441" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="C441" s="139"/>
-      <c r="D441" s="139"/>
-      <c r="E441" s="139"/>
-      <c r="F441" s="139"/>
-      <c r="G441" s="139"/>
-      <c r="H441" s="139"/>
-      <c r="I441" s="139"/>
+      <c r="C441" s="149"/>
+      <c r="D441" s="149"/>
+      <c r="E441" s="149"/>
+      <c r="F441" s="149"/>
+      <c r="G441" s="149"/>
+      <c r="H441" s="149"/>
+      <c r="I441" s="149"/>
     </row>
     <row r="442" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="28"/>
-      <c r="B442" s="139" t="s">
+      <c r="B442" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="C442" s="139"/>
-      <c r="D442" s="139"/>
-      <c r="E442" s="139"/>
-      <c r="F442" s="139"/>
-      <c r="G442" s="139"/>
-      <c r="H442" s="139"/>
-      <c r="I442" s="139"/>
+      <c r="C442" s="149"/>
+      <c r="D442" s="149"/>
+      <c r="E442" s="149"/>
+      <c r="F442" s="149"/>
+      <c r="G442" s="149"/>
+      <c r="H442" s="149"/>
+      <c r="I442" s="149"/>
     </row>
     <row r="443" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="28">
         <v>14</v>
       </c>
-      <c r="B443" s="139" t="s">
+      <c r="B443" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="C443" s="139"/>
-      <c r="D443" s="139"/>
-      <c r="E443" s="139"/>
-      <c r="F443" s="139"/>
-      <c r="G443" s="139"/>
-      <c r="H443" s="139"/>
-      <c r="I443" s="139"/>
+      <c r="C443" s="149"/>
+      <c r="D443" s="149"/>
+      <c r="E443" s="149"/>
+      <c r="F443" s="149"/>
+      <c r="G443" s="149"/>
+      <c r="H443" s="149"/>
+      <c r="I443" s="149"/>
     </row>
     <row r="444" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="28"/>
-      <c r="B444" s="139" t="s">
+      <c r="B444" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="C444" s="139"/>
-      <c r="D444" s="139"/>
-      <c r="E444" s="139"/>
-      <c r="F444" s="139"/>
-      <c r="G444" s="139"/>
-      <c r="H444" s="139"/>
-      <c r="I444" s="139"/>
+      <c r="C444" s="149"/>
+      <c r="D444" s="149"/>
+      <c r="E444" s="149"/>
+      <c r="F444" s="149"/>
+      <c r="G444" s="149"/>
+      <c r="H444" s="149"/>
+      <c r="I444" s="149"/>
     </row>
     <row r="445" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="28"/>
-      <c r="B445" s="139" t="s">
+      <c r="B445" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="C445" s="139"/>
-      <c r="D445" s="139"/>
-      <c r="E445" s="139"/>
-      <c r="F445" s="139"/>
-      <c r="G445" s="139"/>
-      <c r="H445" s="139"/>
-      <c r="I445" s="139"/>
+      <c r="C445" s="149"/>
+      <c r="D445" s="149"/>
+      <c r="E445" s="149"/>
+      <c r="F445" s="149"/>
+      <c r="G445" s="149"/>
+      <c r="H445" s="149"/>
+      <c r="I445" s="149"/>
     </row>
     <row r="446" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="28"/>
-      <c r="B446" s="139" t="s">
+      <c r="B446" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="C446" s="139"/>
-      <c r="D446" s="139"/>
-      <c r="E446" s="139"/>
-      <c r="F446" s="139"/>
-      <c r="G446" s="139"/>
-      <c r="H446" s="139"/>
-      <c r="I446" s="139"/>
+      <c r="C446" s="149"/>
+      <c r="D446" s="149"/>
+      <c r="E446" s="149"/>
+      <c r="F446" s="149"/>
+      <c r="G446" s="149"/>
+      <c r="H446" s="149"/>
+      <c r="I446" s="149"/>
     </row>
     <row r="447" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="28"/>
-      <c r="B447" s="139" t="s">
+      <c r="B447" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="C447" s="139"/>
-      <c r="D447" s="139"/>
-      <c r="E447" s="139"/>
-      <c r="F447" s="139"/>
-      <c r="G447" s="139"/>
-      <c r="H447" s="139"/>
-      <c r="I447" s="139"/>
+      <c r="C447" s="149"/>
+      <c r="D447" s="149"/>
+      <c r="E447" s="149"/>
+      <c r="F447" s="149"/>
+      <c r="G447" s="149"/>
+      <c r="H447" s="149"/>
+      <c r="I447" s="149"/>
     </row>
     <row r="448" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="28">
         <v>15</v>
       </c>
-      <c r="B448" s="139" t="s">
+      <c r="B448" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="C448" s="139"/>
-      <c r="D448" s="139"/>
-      <c r="E448" s="139"/>
-      <c r="F448" s="139"/>
-      <c r="G448" s="139"/>
-      <c r="H448" s="139"/>
-      <c r="I448" s="139"/>
+      <c r="C448" s="149"/>
+      <c r="D448" s="149"/>
+      <c r="E448" s="149"/>
+      <c r="F448" s="149"/>
+      <c r="G448" s="149"/>
+      <c r="H448" s="149"/>
+      <c r="I448" s="149"/>
     </row>
     <row r="449" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="28">
         <v>16</v>
       </c>
-      <c r="B449" s="139" t="s">
+      <c r="B449" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="C449" s="139"/>
-      <c r="D449" s="139"/>
-      <c r="E449" s="139"/>
-      <c r="F449" s="139"/>
-      <c r="G449" s="139"/>
-      <c r="H449" s="139"/>
-      <c r="I449" s="139"/>
+      <c r="C449" s="149"/>
+      <c r="D449" s="149"/>
+      <c r="E449" s="149"/>
+      <c r="F449" s="149"/>
+      <c r="G449" s="149"/>
+      <c r="H449" s="149"/>
+      <c r="I449" s="149"/>
     </row>
     <row r="450" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="28">
         <v>17</v>
       </c>
-      <c r="B450" s="139" t="s">
+      <c r="B450" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C450" s="139"/>
-      <c r="D450" s="139"/>
-      <c r="E450" s="139"/>
-      <c r="F450" s="139"/>
-      <c r="G450" s="139"/>
-      <c r="H450" s="139"/>
-      <c r="I450" s="139"/>
+      <c r="C450" s="149"/>
+      <c r="D450" s="149"/>
+      <c r="E450" s="149"/>
+      <c r="F450" s="149"/>
+      <c r="G450" s="149"/>
+      <c r="H450" s="149"/>
+      <c r="I450" s="149"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="52"/>
@@ -9460,38 +9385,61 @@
       <c r="A455" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B364:C365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="D364:G365"/>
-    <mergeCell ref="D366:G366"/>
-    <mergeCell ref="D367:G367"/>
-    <mergeCell ref="D368:G368"/>
-    <mergeCell ref="D369:G369"/>
-    <mergeCell ref="D370:G370"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="B349:I349"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B317:I320"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D129:I129"/>
+  <mergeCells count="105">
+    <mergeCell ref="H364:H365"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A56:I59"/>
+    <mergeCell ref="B331:I331"/>
+    <mergeCell ref="B323:I324"/>
+    <mergeCell ref="B356:I359"/>
+    <mergeCell ref="B344:I344"/>
+    <mergeCell ref="B362:I363"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="M56:T59"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M284:T284"/>
+    <mergeCell ref="M226:T226"/>
+    <mergeCell ref="M273:T273"/>
+    <mergeCell ref="M277:T277"/>
+    <mergeCell ref="M281:T281"/>
+    <mergeCell ref="M283:T283"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="B91:I93"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B86:I87"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A53:I54"/>
+    <mergeCell ref="B450:I450"/>
+    <mergeCell ref="B439:I439"/>
+    <mergeCell ref="B440:I440"/>
+    <mergeCell ref="B441:I441"/>
+    <mergeCell ref="B442:I442"/>
+    <mergeCell ref="B443:I443"/>
+    <mergeCell ref="B444:I444"/>
+    <mergeCell ref="B445:I445"/>
+    <mergeCell ref="B446:I446"/>
+    <mergeCell ref="B447:I447"/>
+    <mergeCell ref="B448:I448"/>
+    <mergeCell ref="B449:I449"/>
+    <mergeCell ref="B438:I438"/>
+    <mergeCell ref="B425:I425"/>
+    <mergeCell ref="B426:I426"/>
+    <mergeCell ref="B427:I427"/>
+    <mergeCell ref="B428:I428"/>
+    <mergeCell ref="B429:I429"/>
+    <mergeCell ref="B430:I430"/>
+    <mergeCell ref="B431:I431"/>
+    <mergeCell ref="B432:I432"/>
+    <mergeCell ref="B434:I434"/>
+    <mergeCell ref="B435:I435"/>
+    <mergeCell ref="B436:I436"/>
+    <mergeCell ref="B437:I437"/>
     <mergeCell ref="F403:G403"/>
     <mergeCell ref="B376:I377"/>
     <mergeCell ref="B424:I424"/>
@@ -9513,79 +9461,36 @@
     <mergeCell ref="B408:I408"/>
     <mergeCell ref="B409:I409"/>
     <mergeCell ref="B410:I410"/>
-    <mergeCell ref="B438:I438"/>
-    <mergeCell ref="B425:I425"/>
-    <mergeCell ref="B426:I426"/>
-    <mergeCell ref="B427:I427"/>
-    <mergeCell ref="B428:I428"/>
-    <mergeCell ref="B429:I429"/>
-    <mergeCell ref="B430:I430"/>
-    <mergeCell ref="B431:I431"/>
-    <mergeCell ref="B432:I432"/>
-    <mergeCell ref="B434:I434"/>
-    <mergeCell ref="B435:I435"/>
-    <mergeCell ref="B436:I436"/>
-    <mergeCell ref="B437:I437"/>
-    <mergeCell ref="B450:I450"/>
-    <mergeCell ref="B439:I439"/>
-    <mergeCell ref="B440:I440"/>
-    <mergeCell ref="B441:I441"/>
-    <mergeCell ref="B442:I442"/>
-    <mergeCell ref="B443:I443"/>
-    <mergeCell ref="B444:I444"/>
-    <mergeCell ref="B445:I445"/>
-    <mergeCell ref="B446:I446"/>
-    <mergeCell ref="B447:I447"/>
-    <mergeCell ref="B448:I448"/>
-    <mergeCell ref="B449:I449"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M284:T284"/>
-    <mergeCell ref="M226:T226"/>
-    <mergeCell ref="M273:T273"/>
-    <mergeCell ref="M277:T277"/>
-    <mergeCell ref="M281:T281"/>
-    <mergeCell ref="M283:T283"/>
-    <mergeCell ref="Q54:X54"/>
-    <mergeCell ref="B91:I93"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B86:I87"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A53:I54"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="B125:C129"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="H364:H365"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B331:I331"/>
-    <mergeCell ref="B323:I324"/>
-    <mergeCell ref="B356:I359"/>
-    <mergeCell ref="B344:I344"/>
-    <mergeCell ref="B362:I363"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="B114:C116"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="B117:C119"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D352:E352"/>
+    <mergeCell ref="B349:I349"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B317:I320"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B364:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="D364:G365"/>
+    <mergeCell ref="D366:G366"/>
+    <mergeCell ref="D367:G367"/>
+    <mergeCell ref="D368:G368"/>
+    <mergeCell ref="D369:G369"/>
+    <mergeCell ref="D370:G370"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -9668,21 +9573,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9698,24 +9603,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9738,46 +9643,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="155" t="s">
+      <c r="F15" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="F16" s="159" t="s">
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="F16" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -9791,43 +9696,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -9846,17 +9751,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="154" t="s">
+      <c r="A25" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9867,257 +9772,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151" t="s">
+      <c r="C28" s="159"/>
+      <c r="D28" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="161"/>
-      <c r="D30" s="152" t="s">
+      <c r="C30" s="156"/>
+      <c r="D30" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="161" t="s">
+      <c r="B33" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="161"/>
-      <c r="D33" s="152" t="s">
+      <c r="C33" s="156"/>
+      <c r="D33" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="152" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="161"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="161"/>
-      <c r="D39" s="152" t="s">
+      <c r="C39" s="156"/>
+      <c r="D39" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="163"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
+      <c r="A45" s="158"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="165"/>
-      <c r="D47" s="164" t="s">
+      <c r="C47" s="161"/>
+      <c r="D47" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="169"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="165"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="166"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="172"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="168"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="179"/>
-      <c r="D49" s="182" t="s">
+      <c r="C49" s="175"/>
+      <c r="D49" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="184"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="180"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="180"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="187"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="183"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="179"/>
-      <c r="D51" s="188" t="s">
+      <c r="C51" s="175"/>
+      <c r="D51" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="189"/>
-      <c r="F51" s="189"/>
-      <c r="G51" s="189"/>
-      <c r="H51" s="190"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="186"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="197"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="193"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="189"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="180"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="194"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="195"/>
-      <c r="H53" s="196"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="192"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="176" t="s">
+      <c r="B54" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="177"/>
-      <c r="D54" s="173" t="s">
+      <c r="C54" s="173"/>
+      <c r="D54" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="175"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="171"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -10155,90 +10060,110 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="151" t="s">
+      <c r="B61" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151" t="s">
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="151"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="151"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="151"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="161" t="s">
+      <c r="B63" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161" t="s">
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="161"/>
-      <c r="H63" s="161"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="161"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="161"/>
-      <c r="F64" s="161"/>
-      <c r="G64" s="161"/>
-      <c r="H64" s="161"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="161" t="s">
+      <c r="B65" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="161" t="s">
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="161"/>
-      <c r="H65" s="161"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="161"/>
-      <c r="C66" s="161"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="161"/>
-      <c r="F66" s="161"/>
-      <c r="G66" s="161"/>
-      <c r="H66" s="161"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="162" t="s">
+      <c r="A73" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="162"/>
-      <c r="C73" s="162"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="163"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="163"/>
+      <c r="A74" s="158"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="163"/>
+      <c r="A75" s="158"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -10255,26 +10180,6 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10393,39 +10298,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="D13" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="206"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="222" t="s">
+      <c r="G13" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="222"/>
-      <c r="I13" s="222"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="223" t="s">
+      <c r="D14" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="223"/>
-      <c r="G14" s="224" t="s">
+      <c r="E14" s="207"/>
+      <c r="G14" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="222" t="s">
+      <c r="D15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -10435,265 +10340,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="226"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="219" t="s">
+      <c r="D26" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="210" t="s">
+      <c r="D27" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="218"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="221"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="209"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="215"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="218"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="221"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="209"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="224"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="208" t="s">
+      <c r="C33" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="212"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="219"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="216"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="218"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="221"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="209"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="224"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="208" t="s">
+      <c r="C36" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="210" t="s">
+      <c r="D36" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="212"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="216"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="218"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="209"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="224"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="137" t="s">
+      <c r="L39" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
-      <c r="S39" s="137"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="137" t="s">
+      <c r="L42" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137"/>
-      <c r="R42" s="137"/>
-      <c r="S42" s="137"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10734,157 +10639,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="219" t="s">
+      <c r="D58" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="220"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="220"/>
-      <c r="H58" s="220"/>
-      <c r="I58" s="221"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="213"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="208" t="s">
+      <c r="C59" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="210" t="s">
+      <c r="D59" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="211"/>
-      <c r="F59" s="211"/>
-      <c r="G59" s="211"/>
-      <c r="H59" s="211"/>
-      <c r="I59" s="212"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
+      <c r="I59" s="219"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="209"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="214"/>
-      <c r="F60" s="214"/>
-      <c r="G60" s="214"/>
-      <c r="H60" s="214"/>
-      <c r="I60" s="215"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="222"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="223"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="223"/>
+      <c r="I60" s="224"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="208" t="s">
+      <c r="C61" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="210" t="s">
+      <c r="D61" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="211"/>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="211"/>
-      <c r="I61" s="212"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
+      <c r="H61" s="218"/>
+      <c r="I61" s="219"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="209"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="214"/>
-      <c r="F62" s="214"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="214"/>
-      <c r="I62" s="215"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="222"/>
+      <c r="E62" s="223"/>
+      <c r="F62" s="223"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="223"/>
+      <c r="I62" s="224"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="208" t="s">
+      <c r="C63" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="210" t="s">
+      <c r="D63" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="211"/>
-      <c r="F63" s="211"/>
-      <c r="G63" s="211"/>
-      <c r="H63" s="211"/>
-      <c r="I63" s="212"/>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
+      <c r="H63" s="218"/>
+      <c r="I63" s="219"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="209"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="214"/>
-      <c r="F64" s="214"/>
-      <c r="G64" s="214"/>
-      <c r="H64" s="214"/>
-      <c r="I64" s="215"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="223"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="223"/>
+      <c r="I64" s="224"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="208" t="s">
+      <c r="C65" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="210" t="s">
+      <c r="D65" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="211"/>
-      <c r="F65" s="211"/>
-      <c r="G65" s="211"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="212"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
+      <c r="H65" s="218"/>
+      <c r="I65" s="219"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="216"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="218"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="221"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="209"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="214"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="214"/>
-      <c r="H67" s="214"/>
-      <c r="I67" s="215"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="222"/>
+      <c r="E67" s="223"/>
+      <c r="F67" s="223"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="223"/>
+      <c r="I67" s="224"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="208" t="s">
+      <c r="C68" s="214" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="210" t="s">
+      <c r="D68" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="211"/>
-      <c r="F68" s="211"/>
-      <c r="G68" s="211"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="212"/>
+      <c r="E68" s="218"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="218"/>
+      <c r="H68" s="218"/>
+      <c r="I68" s="219"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="216"/>
-      <c r="D69" s="217"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="218"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="221"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="209"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="214"/>
-      <c r="F70" s="214"/>
-      <c r="G70" s="214"/>
-      <c r="H70" s="214"/>
-      <c r="I70" s="215"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="223"/>
+      <c r="F70" s="223"/>
+      <c r="G70" s="223"/>
+      <c r="H70" s="223"/>
+      <c r="I70" s="224"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10895,53 +10800,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="200" t="s">
+      <c r="D74" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="201"/>
-      <c r="F74" s="201"/>
-      <c r="G74" s="201"/>
-      <c r="H74" s="201"/>
-      <c r="I74" s="202"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="228"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="203" t="s">
+      <c r="D75" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="204"/>
-      <c r="F75" s="204"/>
-      <c r="G75" s="204"/>
-      <c r="H75" s="204"/>
-      <c r="I75" s="205"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="230"/>
+      <c r="I75" s="231"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="203" t="s">
+      <c r="D76" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="205"/>
+      <c r="E76" s="230"/>
+      <c r="F76" s="230"/>
+      <c r="G76" s="230"/>
+      <c r="H76" s="230"/>
+      <c r="I76" s="231"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="203" t="s">
+      <c r="D77" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="204"/>
-      <c r="F77" s="204"/>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
-      <c r="I77" s="205"/>
+      <c r="E77" s="230"/>
+      <c r="F77" s="230"/>
+      <c r="G77" s="230"/>
+      <c r="H77" s="230"/>
+      <c r="I77" s="231"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10960,36 +10865,45 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="206" t="s">
+      <c r="C91" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="206"/>
+      <c r="D91" s="205"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="207">
+      <c r="G91" s="232">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="H91" s="207"/>
-      <c r="I91" s="207"/>
+        <v>45308</v>
+      </c>
+      <c r="H91" s="232"/>
+      <c r="I91" s="232"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="199"/>
-      <c r="H92" s="199"/>
+      <c r="G92" s="225"/>
+      <c r="H92" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11003,25 +10917,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -11144,40 +11049,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="206" t="s">
+      <c r="C13" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="206"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="206" t="s">
+      <c r="F13" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="223"/>
-      <c r="F14" s="223" t="s">
+      <c r="D14" s="207"/>
+      <c r="F14" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -11186,232 +11091,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="226"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="231" t="s">
+      <c r="D26" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="228" t="s">
+      <c r="C27" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="229" t="s">
+      <c r="D27" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="228"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="228"/>
-      <c r="D29" s="229"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="229"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="229"/>
-      <c r="I30" s="229"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="228"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="229"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="228"/>
-      <c r="D32" s="229"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="229"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="229"/>
-      <c r="I33" s="229"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="228"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="229"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="229"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="229"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="228" t="s">
+      <c r="C36" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="229"/>
-      <c r="G37" s="229"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="229"/>
+      <c r="C37" s="234"/>
+      <c r="D37" s="235"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="228"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="229"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11452,157 +11357,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="231" t="s">
+      <c r="D58" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="231"/>
-      <c r="F58" s="231"/>
-      <c r="G58" s="231"/>
-      <c r="H58" s="231"/>
-      <c r="I58" s="231"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="233"/>
+      <c r="H58" s="233"/>
+      <c r="I58" s="233"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="228" t="s">
+      <c r="C59" s="234" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="229" t="s">
+      <c r="D59" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
+      <c r="E59" s="235"/>
+      <c r="F59" s="235"/>
+      <c r="G59" s="235"/>
+      <c r="H59" s="235"/>
+      <c r="I59" s="235"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="228"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="229"/>
-      <c r="F60" s="229"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="229"/>
+      <c r="C60" s="234"/>
+      <c r="D60" s="235"/>
+      <c r="E60" s="235"/>
+      <c r="F60" s="235"/>
+      <c r="G60" s="235"/>
+      <c r="H60" s="235"/>
+      <c r="I60" s="235"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="228" t="s">
+      <c r="C61" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="229" t="s">
+      <c r="D61" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="229"/>
-      <c r="F61" s="229"/>
-      <c r="G61" s="229"/>
-      <c r="H61" s="229"/>
-      <c r="I61" s="229"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="235"/>
+      <c r="G61" s="235"/>
+      <c r="H61" s="235"/>
+      <c r="I61" s="235"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="228"/>
-      <c r="D62" s="229"/>
-      <c r="E62" s="229"/>
-      <c r="F62" s="229"/>
-      <c r="G62" s="229"/>
-      <c r="H62" s="229"/>
-      <c r="I62" s="229"/>
+      <c r="C62" s="234"/>
+      <c r="D62" s="235"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="235"/>
+      <c r="G62" s="235"/>
+      <c r="H62" s="235"/>
+      <c r="I62" s="235"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="228" t="s">
+      <c r="C63" s="234" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="229" t="s">
+      <c r="D63" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="229"/>
-      <c r="F63" s="229"/>
-      <c r="G63" s="229"/>
-      <c r="H63" s="229"/>
-      <c r="I63" s="229"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="235"/>
+      <c r="H63" s="235"/>
+      <c r="I63" s="235"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="228"/>
-      <c r="D64" s="229"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="229"/>
+      <c r="C64" s="234"/>
+      <c r="D64" s="235"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="235"/>
+      <c r="G64" s="235"/>
+      <c r="H64" s="235"/>
+      <c r="I64" s="235"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="228" t="s">
+      <c r="C65" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="229" t="s">
+      <c r="D65" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="229"/>
-      <c r="F65" s="229"/>
-      <c r="G65" s="229"/>
-      <c r="H65" s="229"/>
-      <c r="I65" s="229"/>
+      <c r="E65" s="235"/>
+      <c r="F65" s="235"/>
+      <c r="G65" s="235"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="228"/>
-      <c r="D66" s="229"/>
-      <c r="E66" s="229"/>
-      <c r="F66" s="229"/>
-      <c r="G66" s="229"/>
-      <c r="H66" s="229"/>
-      <c r="I66" s="229"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="235"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="228"/>
-      <c r="D67" s="229"/>
-      <c r="E67" s="229"/>
-      <c r="F67" s="229"/>
-      <c r="G67" s="229"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="229"/>
+      <c r="C67" s="234"/>
+      <c r="D67" s="235"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="235"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="228" t="s">
+      <c r="C68" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="229" t="s">
+      <c r="D68" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="229"/>
-      <c r="F68" s="229"/>
-      <c r="G68" s="229"/>
-      <c r="H68" s="229"/>
-      <c r="I68" s="229"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="228"/>
-      <c r="D69" s="229"/>
-      <c r="E69" s="229"/>
-      <c r="F69" s="229"/>
-      <c r="G69" s="229"/>
-      <c r="H69" s="229"/>
-      <c r="I69" s="229"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="235"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="228"/>
-      <c r="D70" s="229"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="229"/>
-      <c r="G70" s="229"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="229"/>
+      <c r="C70" s="234"/>
+      <c r="D70" s="235"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="235"/>
+      <c r="G70" s="235"/>
+      <c r="H70" s="235"/>
+      <c r="I70" s="235"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11613,53 +11518,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="230" t="s">
+      <c r="D74" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="230"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230"/>
-      <c r="I74" s="230"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
+      <c r="I74" s="237"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="227" t="s">
+      <c r="D75" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="227"/>
-      <c r="F75" s="227"/>
-      <c r="G75" s="227"/>
-      <c r="H75" s="227"/>
-      <c r="I75" s="227"/>
+      <c r="E75" s="236"/>
+      <c r="F75" s="236"/>
+      <c r="G75" s="236"/>
+      <c r="H75" s="236"/>
+      <c r="I75" s="236"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="227" t="s">
+      <c r="D76" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="227"/>
-      <c r="F76" s="227"/>
-      <c r="G76" s="227"/>
-      <c r="H76" s="227"/>
-      <c r="I76" s="227"/>
+      <c r="E76" s="236"/>
+      <c r="F76" s="236"/>
+      <c r="G76" s="236"/>
+      <c r="H76" s="236"/>
+      <c r="I76" s="236"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="227" t="s">
+      <c r="D77" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="227"/>
-      <c r="F77" s="227"/>
-      <c r="G77" s="227"/>
-      <c r="H77" s="227"/>
-      <c r="I77" s="227"/>
+      <c r="E77" s="236"/>
+      <c r="F77" s="236"/>
+      <c r="G77" s="236"/>
+      <c r="H77" s="236"/>
+      <c r="I77" s="236"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -11676,36 +11581,43 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="206" t="s">
+      <c r="C91" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="206"/>
+      <c r="D91" s="205"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="207">
+      <c r="G91" s="232">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
-      </c>
-      <c r="H91" s="207"/>
-      <c r="I91" s="207"/>
+        <v>45308</v>
+      </c>
+      <c r="H91" s="232"/>
+      <c r="I91" s="232"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11719,23 +11631,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -11767,7 +11672,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11804,28 +11709,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11852,15 +11757,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11885,15 +11790,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11934,16 +11839,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12033,48 +11938,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12087,16 +11992,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12110,16 +12015,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12142,221 +12047,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="163"/>
-      <c r="G68" s="163"/>
-      <c r="H68" s="163"/>
-      <c r="I68" s="163"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
-      <c r="I69" s="163"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="232"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="236" t="s">
+      <c r="B71" s="245"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="237"/>
-      <c r="F71" s="236" t="s">
+      <c r="E71" s="250"/>
+      <c r="F71" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="237"/>
-      <c r="H71" s="236" t="s">
+      <c r="G71" s="250"/>
+      <c r="H71" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="237"/>
+      <c r="I71" s="250"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="234"/>
-      <c r="C72" s="235"/>
-      <c r="D72" s="238"/>
-      <c r="E72" s="239"/>
-      <c r="F72" s="238"/>
-      <c r="G72" s="239"/>
-      <c r="H72" s="238"/>
-      <c r="I72" s="239"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="251"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="251"/>
+      <c r="I72" s="252"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="243" t="s">
+      <c r="B73" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="244"/>
-      <c r="D73" s="240"/>
-      <c r="E73" s="241"/>
-      <c r="F73" s="242"/>
-      <c r="G73" s="241"/>
-      <c r="H73" s="242"/>
-      <c r="I73" s="241"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="239"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="245" t="s">
+      <c r="E78" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="246"/>
-      <c r="G78" s="246"/>
-      <c r="H78" s="246"/>
+      <c r="F78" s="244"/>
+      <c r="G78" s="244"/>
+      <c r="H78" s="244"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="246"/>
-      <c r="F79" s="246"/>
-      <c r="G79" s="246"/>
-      <c r="H79" s="246"/>
+      <c r="E79" s="244"/>
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
+      <c r="A82" s="143"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="124"/>
-      <c r="H83" s="124"/>
-      <c r="I83" s="124"/>
+      <c r="A83" s="143"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="143"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
+      <c r="A84" s="143"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="143"/>
+      <c r="I84" s="143"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
+      <c r="A85" s="143"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="143"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
+      <c r="A86" s="143"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="124"/>
-      <c r="I88" s="124"/>
+      <c r="A88" s="143"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="I88" s="143"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
+      <c r="A89" s="143"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
+      <c r="G89" s="143"/>
+      <c r="H89" s="143"/>
+      <c r="I89" s="143"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="124"/>
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="124"/>
+      <c r="A90" s="143"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="143"/>
+      <c r="I90" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
@@ -12364,19 +12282,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12401,7 +12306,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12438,28 +12343,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -12486,15 +12391,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12519,15 +12424,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12568,16 +12473,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12667,48 +12572,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12721,16 +12626,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12744,16 +12649,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12776,227 +12681,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="163"/>
-      <c r="G68" s="163"/>
-      <c r="H68" s="163"/>
-      <c r="I68" s="163"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
-      <c r="I69" s="163"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="232"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="236" t="s">
+      <c r="B71" s="245"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="237"/>
-      <c r="F71" s="236" t="s">
+      <c r="E71" s="250"/>
+      <c r="F71" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="237"/>
-      <c r="H71" s="236" t="s">
+      <c r="G71" s="250"/>
+      <c r="H71" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="237"/>
+      <c r="I71" s="250"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="234"/>
-      <c r="C72" s="235"/>
-      <c r="D72" s="238"/>
-      <c r="E72" s="239"/>
-      <c r="F72" s="238"/>
-      <c r="G72" s="239"/>
-      <c r="H72" s="238"/>
-      <c r="I72" s="239"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="251"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="251"/>
+      <c r="I72" s="252"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="243" t="s">
+      <c r="B73" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="244"/>
-      <c r="D73" s="240"/>
-      <c r="E73" s="241"/>
-      <c r="F73" s="242"/>
-      <c r="G73" s="241"/>
-      <c r="H73" s="242"/>
-      <c r="I73" s="241"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="239"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="245" t="s">
+      <c r="E78" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="246"/>
-      <c r="G78" s="246"/>
-      <c r="H78" s="246"/>
+      <c r="F78" s="244"/>
+      <c r="G78" s="244"/>
+      <c r="H78" s="244"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="246"/>
-      <c r="F79" s="246"/>
-      <c r="G79" s="246"/>
-      <c r="H79" s="246"/>
+      <c r="E79" s="244"/>
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
+      <c r="B81" s="143"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
+      <c r="A82" s="143"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="124"/>
-      <c r="H83" s="124"/>
-      <c r="I83" s="124"/>
+      <c r="A83" s="143"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="143"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
+      <c r="A84" s="143"/>
+      <c r="B84" s="143"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="143"/>
+      <c r="I84" s="143"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
+      <c r="A85" s="143"/>
+      <c r="B85" s="143"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="143"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
+      <c r="A86" s="143"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="124"/>
-      <c r="I88" s="124"/>
+      <c r="A88" s="143"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="I88" s="143"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
+      <c r="A89" s="143"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
+      <c r="G89" s="143"/>
+      <c r="H89" s="143"/>
+      <c r="I89" s="143"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="124"/>
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="124"/>
+      <c r="A90" s="143"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="143"/>
+      <c r="I90" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -13004,13 +12910,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
